--- a/www/docs/SouthSudan_AllIndicatorsAvailable_TerritorialRef_2011_2012_CCode_728.xlsx
+++ b/www/docs/SouthSudan_AllIndicatorsAvailable_TerritorialRef_2011_2012_CCode_728.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="587">
   <si>
     <t>Country Code</t>
   </si>
@@ -1592,6 +1592,9 @@
     <t>Competitiveness of Participations (PARCOMP)</t>
   </si>
   <si>
+    <t>Composite Measure of Wellbeing</t>
+  </si>
+  <si>
     <t>Exchange Rates to UK Pound</t>
   </si>
   <si>
@@ -1667,103 +1670,115 @@
     <t>Brecke, Peter (2015). Armed conflicts (Internal). http://hdl.handle.net/10622/ORW1HI, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_ORW1HI.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_JQJIP6.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_2EM9DE.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_9J8MJG.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KC0ZHV.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_UEALPE.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_PU9ETX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_HOPFWK.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_IHPUXP.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_V6AEFF.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_ORW1HI.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_JQJIP6.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_2EM9DE.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_9J8MJG.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KC0ZHV.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_UEALPE.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_PU9ETX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_HOPFWK.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_IHPUXP.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_V6AEFF.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_ORW1HI.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_JQJIP6.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_2EM9DE.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_9J8MJG.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_N6BLB8.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_KC0ZHV.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_UEALPE.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_PU9ETX.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_HOPFWK.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_IHPUXP.bib</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_V6AEFF.bib</t>
+    <t>Rijpma, Auke (2017). Composite measure of wellbeing. http://hdl.handle.net/10622/QIPFQF, accessed via the Clio Infra website.</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_ORW1HI.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_JQJIP6.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_2EM9DE.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_9J8MJG.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QIPFQF.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KC0ZHV.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_UEALPE.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_PU9ETX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_HOPFWK.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_IHPUXP.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_V6AEFF.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_ORW1HI.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_JQJIP6.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_2EM9DE.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_9J8MJG.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QIPFQF.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KC0ZHV.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_UEALPE.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_PU9ETX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_HOPFWK.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_IHPUXP.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_V6AEFF.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_ORW1HI.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_JQJIP6.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_2EM9DE.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_9J8MJG.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_QIPFQF.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_N6BLB8.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_KC0ZHV.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_UEALPE.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_PU9ETX.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_HOPFWK.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_IHPUXP.bib</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_V6AEFF.bib</t>
   </si>
 </sst>
 </file>
@@ -7823,7 +7838,9 @@
       <c r="LI6"/>
       <c r="LJ6"/>
       <c r="LK6"/>
-      <c r="LL6"/>
+      <c r="LL6" t="n">
+        <v>-0.6207984</v>
+      </c>
       <c r="LM6"/>
       <c r="LN6"/>
       <c r="LO6"/>
@@ -7833,7 +7850,9 @@
       <c r="LS6"/>
       <c r="LT6"/>
       <c r="LU6"/>
-      <c r="LV6"/>
+      <c r="LV6" t="n">
+        <v>-0.8516643</v>
+      </c>
       <c r="LW6"/>
       <c r="LX6"/>
       <c r="LY6"/>
@@ -7843,7 +7862,9 @@
       <c r="MC6"/>
       <c r="MD6"/>
       <c r="ME6"/>
-      <c r="MF6"/>
+      <c r="MF6" t="n">
+        <v>-0.9007289</v>
+      </c>
       <c r="MG6"/>
       <c r="MH6"/>
       <c r="MI6"/>
@@ -7853,7 +7874,9 @@
       <c r="MM6"/>
       <c r="MN6"/>
       <c r="MO6"/>
-      <c r="MP6"/>
+      <c r="MP6" t="n">
+        <v>-0.7797819</v>
+      </c>
       <c r="MQ6"/>
       <c r="MR6"/>
       <c r="MS6"/>
@@ -7863,7 +7886,9 @@
       <c r="MW6"/>
       <c r="MX6"/>
       <c r="MY6"/>
-      <c r="MZ6"/>
+      <c r="MZ6" t="n">
+        <v>-0.6795021</v>
+      </c>
       <c r="NA6"/>
       <c r="NB6"/>
       <c r="NC6"/>
@@ -7873,7 +7898,9 @@
       <c r="NG6"/>
       <c r="NH6"/>
       <c r="NI6"/>
-      <c r="NJ6"/>
+      <c r="NJ6" t="n">
+        <v>-0.6963231</v>
+      </c>
       <c r="NK6"/>
       <c r="NL6"/>
       <c r="NM6"/>
@@ -7883,7 +7910,9 @@
       <c r="NQ6"/>
       <c r="NR6"/>
       <c r="NS6"/>
-      <c r="NT6"/>
+      <c r="NT6" t="n">
+        <v>-0.7190819</v>
+      </c>
       <c r="NU6"/>
       <c r="NV6"/>
       <c r="NW6"/>
@@ -7893,7 +7922,9 @@
       <c r="OA6"/>
       <c r="OB6"/>
       <c r="OC6"/>
-      <c r="OD6"/>
+      <c r="OD6" t="n">
+        <v>-0.7291897</v>
+      </c>
       <c r="OE6"/>
       <c r="OF6"/>
       <c r="OG6"/>
@@ -7903,7 +7934,9 @@
       <c r="OK6"/>
       <c r="OL6"/>
       <c r="OM6"/>
-      <c r="ON6"/>
+      <c r="ON6" t="n">
+        <v>-0.8051293</v>
+      </c>
       <c r="OO6"/>
       <c r="OP6"/>
       <c r="OQ6"/>
@@ -7913,7 +7946,9 @@
       <c r="OU6"/>
       <c r="OV6"/>
       <c r="OW6"/>
-      <c r="OX6"/>
+      <c r="OX6" t="n">
+        <v>-0.6256315</v>
+      </c>
       <c r="OY6"/>
       <c r="OZ6"/>
       <c r="PA6"/>
@@ -7923,7 +7958,9 @@
       <c r="PE6"/>
       <c r="PF6"/>
       <c r="PG6"/>
-      <c r="PH6"/>
+      <c r="PH6" t="n">
+        <v>-0.6795895</v>
+      </c>
       <c r="PI6"/>
       <c r="PJ6"/>
       <c r="PK6"/>
@@ -7933,7 +7970,9 @@
       <c r="PO6"/>
       <c r="PP6"/>
       <c r="PQ6"/>
-      <c r="PR6"/>
+      <c r="PR6" t="n">
+        <v>-0.5856077</v>
+      </c>
       <c r="PS6"/>
       <c r="PT6"/>
       <c r="PU6"/>
@@ -7943,7 +7982,9 @@
       <c r="PY6"/>
       <c r="PZ6"/>
       <c r="QA6"/>
-      <c r="QB6"/>
+      <c r="QB6" t="n">
+        <v>-0.4057531</v>
+      </c>
       <c r="QC6"/>
       <c r="QD6"/>
       <c r="QE6"/>
@@ -7953,7 +7994,9 @@
       <c r="QI6"/>
       <c r="QJ6"/>
       <c r="QK6"/>
-      <c r="QL6"/>
+      <c r="QL6" t="n">
+        <v>-0.6429637</v>
+      </c>
       <c r="QM6"/>
       <c r="QN6"/>
       <c r="QO6"/>
@@ -7963,7 +8006,9 @@
       <c r="QS6"/>
       <c r="QT6"/>
       <c r="QU6"/>
-      <c r="QV6"/>
+      <c r="QV6" t="n">
+        <v>-0.3443833</v>
+      </c>
       <c r="QW6"/>
       <c r="QX6"/>
       <c r="QY6"/>
@@ -7973,7 +8018,9 @@
       <c r="RC6"/>
       <c r="RD6"/>
       <c r="RE6"/>
-      <c r="RF6"/>
+      <c r="RF6" t="n">
+        <v>-0.04440778</v>
+      </c>
       <c r="RG6"/>
       <c r="RH6"/>
       <c r="RI6"/>
@@ -7983,7 +8030,9 @@
       <c r="RM6"/>
       <c r="RN6"/>
       <c r="RO6"/>
-      <c r="RP6"/>
+      <c r="RP6" t="n">
+        <v>0.1950092</v>
+      </c>
       <c r="RQ6"/>
       <c r="RR6"/>
       <c r="RS6"/>
@@ -7993,7 +8042,9 @@
       <c r="RW6"/>
       <c r="RX6"/>
       <c r="RY6"/>
-      <c r="RZ6"/>
+      <c r="RZ6" t="n">
+        <v>0.530652</v>
+      </c>
       <c r="SA6"/>
       <c r="SB6"/>
       <c r="SC6"/>
@@ -8003,7 +8054,9 @@
       <c r="SG6"/>
       <c r="SH6"/>
       <c r="SI6"/>
-      <c r="SJ6"/>
+      <c r="SJ6" t="n">
+        <v>0.8327006</v>
+      </c>
       <c r="SK6"/>
       <c r="SL6"/>
       <c r="SM6"/>
@@ -8014,15 +8067,9 @@
       <c r="SR6"/>
       <c r="SS6"/>
       <c r="ST6"/>
-      <c r="SU6" t="n">
-        <v>4.788903</v>
-      </c>
-      <c r="SV6" t="n">
-        <v>4.660002</v>
-      </c>
-      <c r="SW6" t="n">
-        <v>4.611821</v>
-      </c>
+      <c r="SU6"/>
+      <c r="SV6"/>
+      <c r="SW6"/>
       <c r="SX6"/>
       <c r="SY6"/>
     </row>
@@ -8548,13 +8595,13 @@
       <c r="SS7"/>
       <c r="ST7"/>
       <c r="SU7" t="n">
-        <v>2.98895</v>
+        <v>4.788903</v>
       </c>
       <c r="SV7" t="n">
-        <v>2.95</v>
+        <v>4.660002</v>
       </c>
       <c r="SW7" t="n">
-        <v>2.95</v>
+        <v>4.611821</v>
       </c>
       <c r="SX7"/>
       <c r="SY7"/>
@@ -9081,12 +9128,14 @@
       <c r="SS8"/>
       <c r="ST8"/>
       <c r="SU8" t="n">
-        <v>5.0</v>
+        <v>2.98895</v>
       </c>
       <c r="SV8" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="SW8"/>
+        <v>2.95</v>
+      </c>
+      <c r="SW8" t="n">
+        <v>2.95</v>
+      </c>
       <c r="SX8"/>
       <c r="SY8"/>
     </row>
@@ -9612,10 +9661,10 @@
       <c r="SS9"/>
       <c r="ST9"/>
       <c r="SU9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="SV9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="SW9"/>
       <c r="SX9"/>
@@ -10143,10 +10192,10 @@
       <c r="SS10"/>
       <c r="ST10"/>
       <c r="SU10" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="SV10" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="SW10"/>
       <c r="SX10"/>
@@ -10674,10 +10723,10 @@
       <c r="SS11"/>
       <c r="ST11"/>
       <c r="SU11" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="SV11" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="SW11"/>
       <c r="SX11"/>
@@ -11214,6 +11263,537 @@
       <c r="SX12"/>
       <c r="SY12"/>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>519</v>
+      </c>
+      <c r="C13" t="s">
+        <v>531</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
+      <c r="AP13"/>
+      <c r="AQ13"/>
+      <c r="AR13"/>
+      <c r="AS13"/>
+      <c r="AT13"/>
+      <c r="AU13"/>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13"/>
+      <c r="AY13"/>
+      <c r="AZ13"/>
+      <c r="BA13"/>
+      <c r="BB13"/>
+      <c r="BC13"/>
+      <c r="BD13"/>
+      <c r="BE13"/>
+      <c r="BF13"/>
+      <c r="BG13"/>
+      <c r="BH13"/>
+      <c r="BI13"/>
+      <c r="BJ13"/>
+      <c r="BK13"/>
+      <c r="BL13"/>
+      <c r="BM13"/>
+      <c r="BN13"/>
+      <c r="BO13"/>
+      <c r="BP13"/>
+      <c r="BQ13"/>
+      <c r="BR13"/>
+      <c r="BS13"/>
+      <c r="BT13"/>
+      <c r="BU13"/>
+      <c r="BV13"/>
+      <c r="BW13"/>
+      <c r="BX13"/>
+      <c r="BY13"/>
+      <c r="BZ13"/>
+      <c r="CA13"/>
+      <c r="CB13"/>
+      <c r="CC13"/>
+      <c r="CD13"/>
+      <c r="CE13"/>
+      <c r="CF13"/>
+      <c r="CG13"/>
+      <c r="CH13"/>
+      <c r="CI13"/>
+      <c r="CJ13"/>
+      <c r="CK13"/>
+      <c r="CL13"/>
+      <c r="CM13"/>
+      <c r="CN13"/>
+      <c r="CO13"/>
+      <c r="CP13"/>
+      <c r="CQ13"/>
+      <c r="CR13"/>
+      <c r="CS13"/>
+      <c r="CT13"/>
+      <c r="CU13"/>
+      <c r="CV13"/>
+      <c r="CW13"/>
+      <c r="CX13"/>
+      <c r="CY13"/>
+      <c r="CZ13"/>
+      <c r="DA13"/>
+      <c r="DB13"/>
+      <c r="DC13"/>
+      <c r="DD13"/>
+      <c r="DE13"/>
+      <c r="DF13"/>
+      <c r="DG13"/>
+      <c r="DH13"/>
+      <c r="DI13"/>
+      <c r="DJ13"/>
+      <c r="DK13"/>
+      <c r="DL13"/>
+      <c r="DM13"/>
+      <c r="DN13"/>
+      <c r="DO13"/>
+      <c r="DP13"/>
+      <c r="DQ13"/>
+      <c r="DR13"/>
+      <c r="DS13"/>
+      <c r="DT13"/>
+      <c r="DU13"/>
+      <c r="DV13"/>
+      <c r="DW13"/>
+      <c r="DX13"/>
+      <c r="DY13"/>
+      <c r="DZ13"/>
+      <c r="EA13"/>
+      <c r="EB13"/>
+      <c r="EC13"/>
+      <c r="ED13"/>
+      <c r="EE13"/>
+      <c r="EF13"/>
+      <c r="EG13"/>
+      <c r="EH13"/>
+      <c r="EI13"/>
+      <c r="EJ13"/>
+      <c r="EK13"/>
+      <c r="EL13"/>
+      <c r="EM13"/>
+      <c r="EN13"/>
+      <c r="EO13"/>
+      <c r="EP13"/>
+      <c r="EQ13"/>
+      <c r="ER13"/>
+      <c r="ES13"/>
+      <c r="ET13"/>
+      <c r="EU13"/>
+      <c r="EV13"/>
+      <c r="EW13"/>
+      <c r="EX13"/>
+      <c r="EY13"/>
+      <c r="EZ13"/>
+      <c r="FA13"/>
+      <c r="FB13"/>
+      <c r="FC13"/>
+      <c r="FD13"/>
+      <c r="FE13"/>
+      <c r="FF13"/>
+      <c r="FG13"/>
+      <c r="FH13"/>
+      <c r="FI13"/>
+      <c r="FJ13"/>
+      <c r="FK13"/>
+      <c r="FL13"/>
+      <c r="FM13"/>
+      <c r="FN13"/>
+      <c r="FO13"/>
+      <c r="FP13"/>
+      <c r="FQ13"/>
+      <c r="FR13"/>
+      <c r="FS13"/>
+      <c r="FT13"/>
+      <c r="FU13"/>
+      <c r="FV13"/>
+      <c r="FW13"/>
+      <c r="FX13"/>
+      <c r="FY13"/>
+      <c r="FZ13"/>
+      <c r="GA13"/>
+      <c r="GB13"/>
+      <c r="GC13"/>
+      <c r="GD13"/>
+      <c r="GE13"/>
+      <c r="GF13"/>
+      <c r="GG13"/>
+      <c r="GH13"/>
+      <c r="GI13"/>
+      <c r="GJ13"/>
+      <c r="GK13"/>
+      <c r="GL13"/>
+      <c r="GM13"/>
+      <c r="GN13"/>
+      <c r="GO13"/>
+      <c r="GP13"/>
+      <c r="GQ13"/>
+      <c r="GR13"/>
+      <c r="GS13"/>
+      <c r="GT13"/>
+      <c r="GU13"/>
+      <c r="GV13"/>
+      <c r="GW13"/>
+      <c r="GX13"/>
+      <c r="GY13"/>
+      <c r="GZ13"/>
+      <c r="HA13"/>
+      <c r="HB13"/>
+      <c r="HC13"/>
+      <c r="HD13"/>
+      <c r="HE13"/>
+      <c r="HF13"/>
+      <c r="HG13"/>
+      <c r="HH13"/>
+      <c r="HI13"/>
+      <c r="HJ13"/>
+      <c r="HK13"/>
+      <c r="HL13"/>
+      <c r="HM13"/>
+      <c r="HN13"/>
+      <c r="HO13"/>
+      <c r="HP13"/>
+      <c r="HQ13"/>
+      <c r="HR13"/>
+      <c r="HS13"/>
+      <c r="HT13"/>
+      <c r="HU13"/>
+      <c r="HV13"/>
+      <c r="HW13"/>
+      <c r="HX13"/>
+      <c r="HY13"/>
+      <c r="HZ13"/>
+      <c r="IA13"/>
+      <c r="IB13"/>
+      <c r="IC13"/>
+      <c r="ID13"/>
+      <c r="IE13"/>
+      <c r="IF13"/>
+      <c r="IG13"/>
+      <c r="IH13"/>
+      <c r="II13"/>
+      <c r="IJ13"/>
+      <c r="IK13"/>
+      <c r="IL13"/>
+      <c r="IM13"/>
+      <c r="IN13"/>
+      <c r="IO13"/>
+      <c r="IP13"/>
+      <c r="IQ13"/>
+      <c r="IR13"/>
+      <c r="IS13"/>
+      <c r="IT13"/>
+      <c r="IU13"/>
+      <c r="IV13"/>
+      <c r="IW13"/>
+      <c r="IX13"/>
+      <c r="IY13"/>
+      <c r="IZ13"/>
+      <c r="JA13"/>
+      <c r="JB13"/>
+      <c r="JC13"/>
+      <c r="JD13"/>
+      <c r="JE13"/>
+      <c r="JF13"/>
+      <c r="JG13"/>
+      <c r="JH13"/>
+      <c r="JI13"/>
+      <c r="JJ13"/>
+      <c r="JK13"/>
+      <c r="JL13"/>
+      <c r="JM13"/>
+      <c r="JN13"/>
+      <c r="JO13"/>
+      <c r="JP13"/>
+      <c r="JQ13"/>
+      <c r="JR13"/>
+      <c r="JS13"/>
+      <c r="JT13"/>
+      <c r="JU13"/>
+      <c r="JV13"/>
+      <c r="JW13"/>
+      <c r="JX13"/>
+      <c r="JY13"/>
+      <c r="JZ13"/>
+      <c r="KA13"/>
+      <c r="KB13"/>
+      <c r="KC13"/>
+      <c r="KD13"/>
+      <c r="KE13"/>
+      <c r="KF13"/>
+      <c r="KG13"/>
+      <c r="KH13"/>
+      <c r="KI13"/>
+      <c r="KJ13"/>
+      <c r="KK13"/>
+      <c r="KL13"/>
+      <c r="KM13"/>
+      <c r="KN13"/>
+      <c r="KO13"/>
+      <c r="KP13"/>
+      <c r="KQ13"/>
+      <c r="KR13"/>
+      <c r="KS13"/>
+      <c r="KT13"/>
+      <c r="KU13"/>
+      <c r="KV13"/>
+      <c r="KW13"/>
+      <c r="KX13"/>
+      <c r="KY13"/>
+      <c r="KZ13"/>
+      <c r="LA13"/>
+      <c r="LB13"/>
+      <c r="LC13"/>
+      <c r="LD13"/>
+      <c r="LE13"/>
+      <c r="LF13"/>
+      <c r="LG13"/>
+      <c r="LH13"/>
+      <c r="LI13"/>
+      <c r="LJ13"/>
+      <c r="LK13"/>
+      <c r="LL13"/>
+      <c r="LM13"/>
+      <c r="LN13"/>
+      <c r="LO13"/>
+      <c r="LP13"/>
+      <c r="LQ13"/>
+      <c r="LR13"/>
+      <c r="LS13"/>
+      <c r="LT13"/>
+      <c r="LU13"/>
+      <c r="LV13"/>
+      <c r="LW13"/>
+      <c r="LX13"/>
+      <c r="LY13"/>
+      <c r="LZ13"/>
+      <c r="MA13"/>
+      <c r="MB13"/>
+      <c r="MC13"/>
+      <c r="MD13"/>
+      <c r="ME13"/>
+      <c r="MF13"/>
+      <c r="MG13"/>
+      <c r="MH13"/>
+      <c r="MI13"/>
+      <c r="MJ13"/>
+      <c r="MK13"/>
+      <c r="ML13"/>
+      <c r="MM13"/>
+      <c r="MN13"/>
+      <c r="MO13"/>
+      <c r="MP13"/>
+      <c r="MQ13"/>
+      <c r="MR13"/>
+      <c r="MS13"/>
+      <c r="MT13"/>
+      <c r="MU13"/>
+      <c r="MV13"/>
+      <c r="MW13"/>
+      <c r="MX13"/>
+      <c r="MY13"/>
+      <c r="MZ13"/>
+      <c r="NA13"/>
+      <c r="NB13"/>
+      <c r="NC13"/>
+      <c r="ND13"/>
+      <c r="NE13"/>
+      <c r="NF13"/>
+      <c r="NG13"/>
+      <c r="NH13"/>
+      <c r="NI13"/>
+      <c r="NJ13"/>
+      <c r="NK13"/>
+      <c r="NL13"/>
+      <c r="NM13"/>
+      <c r="NN13"/>
+      <c r="NO13"/>
+      <c r="NP13"/>
+      <c r="NQ13"/>
+      <c r="NR13"/>
+      <c r="NS13"/>
+      <c r="NT13"/>
+      <c r="NU13"/>
+      <c r="NV13"/>
+      <c r="NW13"/>
+      <c r="NX13"/>
+      <c r="NY13"/>
+      <c r="NZ13"/>
+      <c r="OA13"/>
+      <c r="OB13"/>
+      <c r="OC13"/>
+      <c r="OD13"/>
+      <c r="OE13"/>
+      <c r="OF13"/>
+      <c r="OG13"/>
+      <c r="OH13"/>
+      <c r="OI13"/>
+      <c r="OJ13"/>
+      <c r="OK13"/>
+      <c r="OL13"/>
+      <c r="OM13"/>
+      <c r="ON13"/>
+      <c r="OO13"/>
+      <c r="OP13"/>
+      <c r="OQ13"/>
+      <c r="OR13"/>
+      <c r="OS13"/>
+      <c r="OT13"/>
+      <c r="OU13"/>
+      <c r="OV13"/>
+      <c r="OW13"/>
+      <c r="OX13"/>
+      <c r="OY13"/>
+      <c r="OZ13"/>
+      <c r="PA13"/>
+      <c r="PB13"/>
+      <c r="PC13"/>
+      <c r="PD13"/>
+      <c r="PE13"/>
+      <c r="PF13"/>
+      <c r="PG13"/>
+      <c r="PH13"/>
+      <c r="PI13"/>
+      <c r="PJ13"/>
+      <c r="PK13"/>
+      <c r="PL13"/>
+      <c r="PM13"/>
+      <c r="PN13"/>
+      <c r="PO13"/>
+      <c r="PP13"/>
+      <c r="PQ13"/>
+      <c r="PR13"/>
+      <c r="PS13"/>
+      <c r="PT13"/>
+      <c r="PU13"/>
+      <c r="PV13"/>
+      <c r="PW13"/>
+      <c r="PX13"/>
+      <c r="PY13"/>
+      <c r="PZ13"/>
+      <c r="QA13"/>
+      <c r="QB13"/>
+      <c r="QC13"/>
+      <c r="QD13"/>
+      <c r="QE13"/>
+      <c r="QF13"/>
+      <c r="QG13"/>
+      <c r="QH13"/>
+      <c r="QI13"/>
+      <c r="QJ13"/>
+      <c r="QK13"/>
+      <c r="QL13"/>
+      <c r="QM13"/>
+      <c r="QN13"/>
+      <c r="QO13"/>
+      <c r="QP13"/>
+      <c r="QQ13"/>
+      <c r="QR13"/>
+      <c r="QS13"/>
+      <c r="QT13"/>
+      <c r="QU13"/>
+      <c r="QV13"/>
+      <c r="QW13"/>
+      <c r="QX13"/>
+      <c r="QY13"/>
+      <c r="QZ13"/>
+      <c r="RA13"/>
+      <c r="RB13"/>
+      <c r="RC13"/>
+      <c r="RD13"/>
+      <c r="RE13"/>
+      <c r="RF13"/>
+      <c r="RG13"/>
+      <c r="RH13"/>
+      <c r="RI13"/>
+      <c r="RJ13"/>
+      <c r="RK13"/>
+      <c r="RL13"/>
+      <c r="RM13"/>
+      <c r="RN13"/>
+      <c r="RO13"/>
+      <c r="RP13"/>
+      <c r="RQ13"/>
+      <c r="RR13"/>
+      <c r="RS13"/>
+      <c r="RT13"/>
+      <c r="RU13"/>
+      <c r="RV13"/>
+      <c r="RW13"/>
+      <c r="RX13"/>
+      <c r="RY13"/>
+      <c r="RZ13"/>
+      <c r="SA13"/>
+      <c r="SB13"/>
+      <c r="SC13"/>
+      <c r="SD13"/>
+      <c r="SE13"/>
+      <c r="SF13"/>
+      <c r="SG13"/>
+      <c r="SH13"/>
+      <c r="SI13"/>
+      <c r="SJ13"/>
+      <c r="SK13"/>
+      <c r="SL13"/>
+      <c r="SM13"/>
+      <c r="SN13"/>
+      <c r="SO13"/>
+      <c r="SP13"/>
+      <c r="SQ13"/>
+      <c r="SR13"/>
+      <c r="SS13"/>
+      <c r="ST13"/>
+      <c r="SU13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="SV13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="SW13"/>
+      <c r="SX13"/>
+      <c r="SY13"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -11238,10 +11818,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2">
@@ -22166,13 +22746,13 @@
         <v>519</v>
       </c>
       <c r="C644" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D644" t="n">
-        <v>1821.0</v>
+        <v>1820.0</v>
       </c>
       <c r="E644" t="n">
-        <v>0.0</v>
+        <v>-0.62079844</v>
       </c>
     </row>
     <row r="645">
@@ -22183,7 +22763,7 @@
         <v>519</v>
       </c>
       <c r="C645" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D645" t="n">
         <v>1821.0</v>
@@ -22200,10 +22780,10 @@
         <v>519</v>
       </c>
       <c r="C646" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D646" t="n">
-        <v>1822.0</v>
+        <v>1821.0</v>
       </c>
       <c r="E646" t="n">
         <v>0.0</v>
@@ -22217,7 +22797,7 @@
         <v>519</v>
       </c>
       <c r="C647" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D647" t="n">
         <v>1822.0</v>
@@ -22234,10 +22814,10 @@
         <v>519</v>
       </c>
       <c r="C648" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D648" t="n">
-        <v>1823.0</v>
+        <v>1822.0</v>
       </c>
       <c r="E648" t="n">
         <v>0.0</v>
@@ -22251,7 +22831,7 @@
         <v>519</v>
       </c>
       <c r="C649" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D649" t="n">
         <v>1823.0</v>
@@ -22268,10 +22848,10 @@
         <v>519</v>
       </c>
       <c r="C650" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D650" t="n">
-        <v>1824.0</v>
+        <v>1823.0</v>
       </c>
       <c r="E650" t="n">
         <v>0.0</v>
@@ -22285,7 +22865,7 @@
         <v>519</v>
       </c>
       <c r="C651" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D651" t="n">
         <v>1824.0</v>
@@ -22302,10 +22882,10 @@
         <v>519</v>
       </c>
       <c r="C652" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D652" t="n">
-        <v>1825.0</v>
+        <v>1824.0</v>
       </c>
       <c r="E652" t="n">
         <v>0.0</v>
@@ -22319,7 +22899,7 @@
         <v>519</v>
       </c>
       <c r="C653" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D653" t="n">
         <v>1825.0</v>
@@ -22336,10 +22916,10 @@
         <v>519</v>
       </c>
       <c r="C654" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D654" t="n">
-        <v>1826.0</v>
+        <v>1825.0</v>
       </c>
       <c r="E654" t="n">
         <v>0.0</v>
@@ -22353,7 +22933,7 @@
         <v>519</v>
       </c>
       <c r="C655" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D655" t="n">
         <v>1826.0</v>
@@ -22370,10 +22950,10 @@
         <v>519</v>
       </c>
       <c r="C656" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D656" t="n">
-        <v>1827.0</v>
+        <v>1826.0</v>
       </c>
       <c r="E656" t="n">
         <v>0.0</v>
@@ -22387,7 +22967,7 @@
         <v>519</v>
       </c>
       <c r="C657" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D657" t="n">
         <v>1827.0</v>
@@ -22404,10 +22984,10 @@
         <v>519</v>
       </c>
       <c r="C658" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D658" t="n">
-        <v>1828.0</v>
+        <v>1827.0</v>
       </c>
       <c r="E658" t="n">
         <v>0.0</v>
@@ -22421,7 +23001,7 @@
         <v>519</v>
       </c>
       <c r="C659" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D659" t="n">
         <v>1828.0</v>
@@ -22438,10 +23018,10 @@
         <v>519</v>
       </c>
       <c r="C660" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D660" t="n">
-        <v>1829.0</v>
+        <v>1828.0</v>
       </c>
       <c r="E660" t="n">
         <v>0.0</v>
@@ -22455,7 +23035,7 @@
         <v>519</v>
       </c>
       <c r="C661" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D661" t="n">
         <v>1829.0</v>
@@ -22472,10 +23052,10 @@
         <v>519</v>
       </c>
       <c r="C662" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D662" t="n">
-        <v>1830.0</v>
+        <v>1829.0</v>
       </c>
       <c r="E662" t="n">
         <v>0.0</v>
@@ -22489,7 +23069,7 @@
         <v>519</v>
       </c>
       <c r="C663" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D663" t="n">
         <v>1830.0</v>
@@ -22506,10 +23086,10 @@
         <v>519</v>
       </c>
       <c r="C664" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D664" t="n">
-        <v>1831.0</v>
+        <v>1830.0</v>
       </c>
       <c r="E664" t="n">
         <v>0.0</v>
@@ -22523,13 +23103,13 @@
         <v>519</v>
       </c>
       <c r="C665" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D665" t="n">
-        <v>1831.0</v>
+        <v>1830.0</v>
       </c>
       <c r="E665" t="n">
-        <v>0.0</v>
+        <v>-0.85166426</v>
       </c>
     </row>
     <row r="666">
@@ -22543,7 +23123,7 @@
         <v>520</v>
       </c>
       <c r="D666" t="n">
-        <v>1832.0</v>
+        <v>1831.0</v>
       </c>
       <c r="E666" t="n">
         <v>0.0</v>
@@ -22560,7 +23140,7 @@
         <v>521</v>
       </c>
       <c r="D667" t="n">
-        <v>1832.0</v>
+        <v>1831.0</v>
       </c>
       <c r="E667" t="n">
         <v>0.0</v>
@@ -22577,7 +23157,7 @@
         <v>520</v>
       </c>
       <c r="D668" t="n">
-        <v>1833.0</v>
+        <v>1832.0</v>
       </c>
       <c r="E668" t="n">
         <v>0.0</v>
@@ -22594,7 +23174,7 @@
         <v>521</v>
       </c>
       <c r="D669" t="n">
-        <v>1833.0</v>
+        <v>1832.0</v>
       </c>
       <c r="E669" t="n">
         <v>0.0</v>
@@ -22611,7 +23191,7 @@
         <v>520</v>
       </c>
       <c r="D670" t="n">
-        <v>1834.0</v>
+        <v>1833.0</v>
       </c>
       <c r="E670" t="n">
         <v>0.0</v>
@@ -22628,7 +23208,7 @@
         <v>521</v>
       </c>
       <c r="D671" t="n">
-        <v>1834.0</v>
+        <v>1833.0</v>
       </c>
       <c r="E671" t="n">
         <v>0.0</v>
@@ -22645,7 +23225,7 @@
         <v>520</v>
       </c>
       <c r="D672" t="n">
-        <v>1835.0</v>
+        <v>1834.0</v>
       </c>
       <c r="E672" t="n">
         <v>0.0</v>
@@ -22662,7 +23242,7 @@
         <v>521</v>
       </c>
       <c r="D673" t="n">
-        <v>1835.0</v>
+        <v>1834.0</v>
       </c>
       <c r="E673" t="n">
         <v>0.0</v>
@@ -22679,7 +23259,7 @@
         <v>520</v>
       </c>
       <c r="D674" t="n">
-        <v>1836.0</v>
+        <v>1835.0</v>
       </c>
       <c r="E674" t="n">
         <v>0.0</v>
@@ -22696,7 +23276,7 @@
         <v>521</v>
       </c>
       <c r="D675" t="n">
-        <v>1836.0</v>
+        <v>1835.0</v>
       </c>
       <c r="E675" t="n">
         <v>0.0</v>
@@ -22713,7 +23293,7 @@
         <v>520</v>
       </c>
       <c r="D676" t="n">
-        <v>1837.0</v>
+        <v>1836.0</v>
       </c>
       <c r="E676" t="n">
         <v>0.0</v>
@@ -22730,7 +23310,7 @@
         <v>521</v>
       </c>
       <c r="D677" t="n">
-        <v>1837.0</v>
+        <v>1836.0</v>
       </c>
       <c r="E677" t="n">
         <v>0.0</v>
@@ -22747,7 +23327,7 @@
         <v>520</v>
       </c>
       <c r="D678" t="n">
-        <v>1838.0</v>
+        <v>1837.0</v>
       </c>
       <c r="E678" t="n">
         <v>0.0</v>
@@ -22764,7 +23344,7 @@
         <v>521</v>
       </c>
       <c r="D679" t="n">
-        <v>1838.0</v>
+        <v>1837.0</v>
       </c>
       <c r="E679" t="n">
         <v>0.0</v>
@@ -22781,7 +23361,7 @@
         <v>520</v>
       </c>
       <c r="D680" t="n">
-        <v>1839.0</v>
+        <v>1838.0</v>
       </c>
       <c r="E680" t="n">
         <v>0.0</v>
@@ -22798,7 +23378,7 @@
         <v>521</v>
       </c>
       <c r="D681" t="n">
-        <v>1839.0</v>
+        <v>1838.0</v>
       </c>
       <c r="E681" t="n">
         <v>0.0</v>
@@ -22815,7 +23395,7 @@
         <v>520</v>
       </c>
       <c r="D682" t="n">
-        <v>1840.0</v>
+        <v>1839.0</v>
       </c>
       <c r="E682" t="n">
         <v>0.0</v>
@@ -22832,7 +23412,7 @@
         <v>521</v>
       </c>
       <c r="D683" t="n">
-        <v>1840.0</v>
+        <v>1839.0</v>
       </c>
       <c r="E683" t="n">
         <v>0.0</v>
@@ -22849,7 +23429,7 @@
         <v>520</v>
       </c>
       <c r="D684" t="n">
-        <v>1841.0</v>
+        <v>1840.0</v>
       </c>
       <c r="E684" t="n">
         <v>0.0</v>
@@ -22866,7 +23446,7 @@
         <v>521</v>
       </c>
       <c r="D685" t="n">
-        <v>1841.0</v>
+        <v>1840.0</v>
       </c>
       <c r="E685" t="n">
         <v>0.0</v>
@@ -22880,13 +23460,13 @@
         <v>519</v>
       </c>
       <c r="C686" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D686" t="n">
-        <v>1842.0</v>
+        <v>1840.0</v>
       </c>
       <c r="E686" t="n">
-        <v>0.0</v>
+        <v>-0.90072891</v>
       </c>
     </row>
     <row r="687">
@@ -22897,10 +23477,10 @@
         <v>519</v>
       </c>
       <c r="C687" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D687" t="n">
-        <v>1842.0</v>
+        <v>1841.0</v>
       </c>
       <c r="E687" t="n">
         <v>0.0</v>
@@ -22914,10 +23494,10 @@
         <v>519</v>
       </c>
       <c r="C688" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D688" t="n">
-        <v>1843.0</v>
+        <v>1841.0</v>
       </c>
       <c r="E688" t="n">
         <v>0.0</v>
@@ -22931,10 +23511,10 @@
         <v>519</v>
       </c>
       <c r="C689" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D689" t="n">
-        <v>1843.0</v>
+        <v>1842.0</v>
       </c>
       <c r="E689" t="n">
         <v>0.0</v>
@@ -22948,10 +23528,10 @@
         <v>519</v>
       </c>
       <c r="C690" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D690" t="n">
-        <v>1844.0</v>
+        <v>1842.0</v>
       </c>
       <c r="E690" t="n">
         <v>0.0</v>
@@ -22965,10 +23545,10 @@
         <v>519</v>
       </c>
       <c r="C691" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D691" t="n">
-        <v>1844.0</v>
+        <v>1843.0</v>
       </c>
       <c r="E691" t="n">
         <v>0.0</v>
@@ -22982,10 +23562,10 @@
         <v>519</v>
       </c>
       <c r="C692" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D692" t="n">
-        <v>1845.0</v>
+        <v>1843.0</v>
       </c>
       <c r="E692" t="n">
         <v>0.0</v>
@@ -22999,10 +23579,10 @@
         <v>519</v>
       </c>
       <c r="C693" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D693" t="n">
-        <v>1845.0</v>
+        <v>1844.0</v>
       </c>
       <c r="E693" t="n">
         <v>0.0</v>
@@ -23016,10 +23596,10 @@
         <v>519</v>
       </c>
       <c r="C694" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D694" t="n">
-        <v>1846.0</v>
+        <v>1844.0</v>
       </c>
       <c r="E694" t="n">
         <v>0.0</v>
@@ -23033,10 +23613,10 @@
         <v>519</v>
       </c>
       <c r="C695" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D695" t="n">
-        <v>1846.0</v>
+        <v>1845.0</v>
       </c>
       <c r="E695" t="n">
         <v>0.0</v>
@@ -23050,10 +23630,10 @@
         <v>519</v>
       </c>
       <c r="C696" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D696" t="n">
-        <v>1847.0</v>
+        <v>1845.0</v>
       </c>
       <c r="E696" t="n">
         <v>0.0</v>
@@ -23067,10 +23647,10 @@
         <v>519</v>
       </c>
       <c r="C697" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D697" t="n">
-        <v>1847.0</v>
+        <v>1846.0</v>
       </c>
       <c r="E697" t="n">
         <v>0.0</v>
@@ -23084,10 +23664,10 @@
         <v>519</v>
       </c>
       <c r="C698" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D698" t="n">
-        <v>1848.0</v>
+        <v>1846.0</v>
       </c>
       <c r="E698" t="n">
         <v>0.0</v>
@@ -23101,10 +23681,10 @@
         <v>519</v>
       </c>
       <c r="C699" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D699" t="n">
-        <v>1848.0</v>
+        <v>1847.0</v>
       </c>
       <c r="E699" t="n">
         <v>0.0</v>
@@ -23118,10 +23698,10 @@
         <v>519</v>
       </c>
       <c r="C700" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D700" t="n">
-        <v>1849.0</v>
+        <v>1847.0</v>
       </c>
       <c r="E700" t="n">
         <v>0.0</v>
@@ -23135,10 +23715,10 @@
         <v>519</v>
       </c>
       <c r="C701" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D701" t="n">
-        <v>1849.0</v>
+        <v>1848.0</v>
       </c>
       <c r="E701" t="n">
         <v>0.0</v>
@@ -23152,10 +23732,10 @@
         <v>519</v>
       </c>
       <c r="C702" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D702" t="n">
-        <v>1850.0</v>
+        <v>1848.0</v>
       </c>
       <c r="E702" t="n">
         <v>0.0</v>
@@ -23169,10 +23749,10 @@
         <v>519</v>
       </c>
       <c r="C703" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D703" t="n">
-        <v>1850.0</v>
+        <v>1849.0</v>
       </c>
       <c r="E703" t="n">
         <v>0.0</v>
@@ -23186,10 +23766,10 @@
         <v>519</v>
       </c>
       <c r="C704" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D704" t="n">
-        <v>1851.0</v>
+        <v>1849.0</v>
       </c>
       <c r="E704" t="n">
         <v>0.0</v>
@@ -23203,10 +23783,10 @@
         <v>519</v>
       </c>
       <c r="C705" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D705" t="n">
-        <v>1851.0</v>
+        <v>1850.0</v>
       </c>
       <c r="E705" t="n">
         <v>0.0</v>
@@ -23220,10 +23800,10 @@
         <v>519</v>
       </c>
       <c r="C706" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D706" t="n">
-        <v>1852.0</v>
+        <v>1850.0</v>
       </c>
       <c r="E706" t="n">
         <v>0.0</v>
@@ -23237,13 +23817,13 @@
         <v>519</v>
       </c>
       <c r="C707" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D707" t="n">
-        <v>1852.0</v>
+        <v>1850.0</v>
       </c>
       <c r="E707" t="n">
-        <v>0.0</v>
+        <v>-0.77978191</v>
       </c>
     </row>
     <row r="708">
@@ -23257,7 +23837,7 @@
         <v>520</v>
       </c>
       <c r="D708" t="n">
-        <v>1853.0</v>
+        <v>1851.0</v>
       </c>
       <c r="E708" t="n">
         <v>0.0</v>
@@ -23274,7 +23854,7 @@
         <v>521</v>
       </c>
       <c r="D709" t="n">
-        <v>1853.0</v>
+        <v>1851.0</v>
       </c>
       <c r="E709" t="n">
         <v>0.0</v>
@@ -23291,7 +23871,7 @@
         <v>520</v>
       </c>
       <c r="D710" t="n">
-        <v>1854.0</v>
+        <v>1852.0</v>
       </c>
       <c r="E710" t="n">
         <v>0.0</v>
@@ -23308,7 +23888,7 @@
         <v>521</v>
       </c>
       <c r="D711" t="n">
-        <v>1854.0</v>
+        <v>1852.0</v>
       </c>
       <c r="E711" t="n">
         <v>0.0</v>
@@ -23325,7 +23905,7 @@
         <v>520</v>
       </c>
       <c r="D712" t="n">
-        <v>1855.0</v>
+        <v>1853.0</v>
       </c>
       <c r="E712" t="n">
         <v>0.0</v>
@@ -23342,7 +23922,7 @@
         <v>521</v>
       </c>
       <c r="D713" t="n">
-        <v>1855.0</v>
+        <v>1853.0</v>
       </c>
       <c r="E713" t="n">
         <v>0.0</v>
@@ -23359,7 +23939,7 @@
         <v>520</v>
       </c>
       <c r="D714" t="n">
-        <v>1856.0</v>
+        <v>1854.0</v>
       </c>
       <c r="E714" t="n">
         <v>0.0</v>
@@ -23376,7 +23956,7 @@
         <v>521</v>
       </c>
       <c r="D715" t="n">
-        <v>1856.0</v>
+        <v>1854.0</v>
       </c>
       <c r="E715" t="n">
         <v>0.0</v>
@@ -23393,7 +23973,7 @@
         <v>520</v>
       </c>
       <c r="D716" t="n">
-        <v>1857.0</v>
+        <v>1855.0</v>
       </c>
       <c r="E716" t="n">
         <v>0.0</v>
@@ -23410,7 +23990,7 @@
         <v>521</v>
       </c>
       <c r="D717" t="n">
-        <v>1857.0</v>
+        <v>1855.0</v>
       </c>
       <c r="E717" t="n">
         <v>0.0</v>
@@ -23427,7 +24007,7 @@
         <v>520</v>
       </c>
       <c r="D718" t="n">
-        <v>1858.0</v>
+        <v>1856.0</v>
       </c>
       <c r="E718" t="n">
         <v>0.0</v>
@@ -23444,7 +24024,7 @@
         <v>521</v>
       </c>
       <c r="D719" t="n">
-        <v>1858.0</v>
+        <v>1856.0</v>
       </c>
       <c r="E719" t="n">
         <v>0.0</v>
@@ -23461,7 +24041,7 @@
         <v>520</v>
       </c>
       <c r="D720" t="n">
-        <v>1859.0</v>
+        <v>1857.0</v>
       </c>
       <c r="E720" t="n">
         <v>0.0</v>
@@ -23478,7 +24058,7 @@
         <v>521</v>
       </c>
       <c r="D721" t="n">
-        <v>1859.0</v>
+        <v>1857.0</v>
       </c>
       <c r="E721" t="n">
         <v>0.0</v>
@@ -23495,7 +24075,7 @@
         <v>520</v>
       </c>
       <c r="D722" t="n">
-        <v>1860.0</v>
+        <v>1858.0</v>
       </c>
       <c r="E722" t="n">
         <v>0.0</v>
@@ -23512,7 +24092,7 @@
         <v>521</v>
       </c>
       <c r="D723" t="n">
-        <v>1860.0</v>
+        <v>1858.0</v>
       </c>
       <c r="E723" t="n">
         <v>0.0</v>
@@ -23529,7 +24109,7 @@
         <v>520</v>
       </c>
       <c r="D724" t="n">
-        <v>1861.0</v>
+        <v>1859.0</v>
       </c>
       <c r="E724" t="n">
         <v>0.0</v>
@@ -23546,7 +24126,7 @@
         <v>521</v>
       </c>
       <c r="D725" t="n">
-        <v>1861.0</v>
+        <v>1859.0</v>
       </c>
       <c r="E725" t="n">
         <v>0.0</v>
@@ -23563,7 +24143,7 @@
         <v>520</v>
       </c>
       <c r="D726" t="n">
-        <v>1862.0</v>
+        <v>1860.0</v>
       </c>
       <c r="E726" t="n">
         <v>0.0</v>
@@ -23580,7 +24160,7 @@
         <v>521</v>
       </c>
       <c r="D727" t="n">
-        <v>1862.0</v>
+        <v>1860.0</v>
       </c>
       <c r="E727" t="n">
         <v>0.0</v>
@@ -23594,13 +24174,13 @@
         <v>519</v>
       </c>
       <c r="C728" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D728" t="n">
-        <v>1863.0</v>
+        <v>1860.0</v>
       </c>
       <c r="E728" t="n">
-        <v>0.0</v>
+        <v>-0.67950206</v>
       </c>
     </row>
     <row r="729">
@@ -23611,10 +24191,10 @@
         <v>519</v>
       </c>
       <c r="C729" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D729" t="n">
-        <v>1863.0</v>
+        <v>1861.0</v>
       </c>
       <c r="E729" t="n">
         <v>0.0</v>
@@ -23628,10 +24208,10 @@
         <v>519</v>
       </c>
       <c r="C730" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D730" t="n">
-        <v>1864.0</v>
+        <v>1861.0</v>
       </c>
       <c r="E730" t="n">
         <v>0.0</v>
@@ -23645,10 +24225,10 @@
         <v>519</v>
       </c>
       <c r="C731" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D731" t="n">
-        <v>1864.0</v>
+        <v>1862.0</v>
       </c>
       <c r="E731" t="n">
         <v>0.0</v>
@@ -23662,10 +24242,10 @@
         <v>519</v>
       </c>
       <c r="C732" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D732" t="n">
-        <v>1865.0</v>
+        <v>1862.0</v>
       </c>
       <c r="E732" t="n">
         <v>0.0</v>
@@ -23679,10 +24259,10 @@
         <v>519</v>
       </c>
       <c r="C733" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D733" t="n">
-        <v>1865.0</v>
+        <v>1863.0</v>
       </c>
       <c r="E733" t="n">
         <v>0.0</v>
@@ -23696,10 +24276,10 @@
         <v>519</v>
       </c>
       <c r="C734" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D734" t="n">
-        <v>1866.0</v>
+        <v>1863.0</v>
       </c>
       <c r="E734" t="n">
         <v>0.0</v>
@@ -23713,10 +24293,10 @@
         <v>519</v>
       </c>
       <c r="C735" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D735" t="n">
-        <v>1866.0</v>
+        <v>1864.0</v>
       </c>
       <c r="E735" t="n">
         <v>0.0</v>
@@ -23730,10 +24310,10 @@
         <v>519</v>
       </c>
       <c r="C736" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D736" t="n">
-        <v>1867.0</v>
+        <v>1864.0</v>
       </c>
       <c r="E736" t="n">
         <v>0.0</v>
@@ -23747,10 +24327,10 @@
         <v>519</v>
       </c>
       <c r="C737" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D737" t="n">
-        <v>1867.0</v>
+        <v>1865.0</v>
       </c>
       <c r="E737" t="n">
         <v>0.0</v>
@@ -23764,10 +24344,10 @@
         <v>519</v>
       </c>
       <c r="C738" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D738" t="n">
-        <v>1868.0</v>
+        <v>1865.0</v>
       </c>
       <c r="E738" t="n">
         <v>0.0</v>
@@ -23781,10 +24361,10 @@
         <v>519</v>
       </c>
       <c r="C739" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D739" t="n">
-        <v>1868.0</v>
+        <v>1866.0</v>
       </c>
       <c r="E739" t="n">
         <v>0.0</v>
@@ -23798,10 +24378,10 @@
         <v>519</v>
       </c>
       <c r="C740" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D740" t="n">
-        <v>1869.0</v>
+        <v>1866.0</v>
       </c>
       <c r="E740" t="n">
         <v>0.0</v>
@@ -23815,10 +24395,10 @@
         <v>519</v>
       </c>
       <c r="C741" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D741" t="n">
-        <v>1869.0</v>
+        <v>1867.0</v>
       </c>
       <c r="E741" t="n">
         <v>0.0</v>
@@ -23832,10 +24412,10 @@
         <v>519</v>
       </c>
       <c r="C742" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D742" t="n">
-        <v>1870.0</v>
+        <v>1867.0</v>
       </c>
       <c r="E742" t="n">
         <v>0.0</v>
@@ -23849,10 +24429,10 @@
         <v>519</v>
       </c>
       <c r="C743" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D743" t="n">
-        <v>1870.0</v>
+        <v>1868.0</v>
       </c>
       <c r="E743" t="n">
         <v>0.0</v>
@@ -23866,10 +24446,10 @@
         <v>519</v>
       </c>
       <c r="C744" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D744" t="n">
-        <v>1871.0</v>
+        <v>1868.0</v>
       </c>
       <c r="E744" t="n">
         <v>0.0</v>
@@ -23883,10 +24463,10 @@
         <v>519</v>
       </c>
       <c r="C745" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D745" t="n">
-        <v>1871.0</v>
+        <v>1869.0</v>
       </c>
       <c r="E745" t="n">
         <v>0.0</v>
@@ -23900,10 +24480,10 @@
         <v>519</v>
       </c>
       <c r="C746" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D746" t="n">
-        <v>1872.0</v>
+        <v>1869.0</v>
       </c>
       <c r="E746" t="n">
         <v>0.0</v>
@@ -23917,10 +24497,10 @@
         <v>519</v>
       </c>
       <c r="C747" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D747" t="n">
-        <v>1872.0</v>
+        <v>1870.0</v>
       </c>
       <c r="E747" t="n">
         <v>0.0</v>
@@ -23934,10 +24514,10 @@
         <v>519</v>
       </c>
       <c r="C748" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D748" t="n">
-        <v>1873.0</v>
+        <v>1870.0</v>
       </c>
       <c r="E748" t="n">
         <v>0.0</v>
@@ -23951,13 +24531,13 @@
         <v>519</v>
       </c>
       <c r="C749" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D749" t="n">
-        <v>1873.0</v>
+        <v>1870.0</v>
       </c>
       <c r="E749" t="n">
-        <v>0.0</v>
+        <v>-0.69632314</v>
       </c>
     </row>
     <row r="750">
@@ -23971,7 +24551,7 @@
         <v>520</v>
       </c>
       <c r="D750" t="n">
-        <v>1874.0</v>
+        <v>1871.0</v>
       </c>
       <c r="E750" t="n">
         <v>0.0</v>
@@ -23988,7 +24568,7 @@
         <v>521</v>
       </c>
       <c r="D751" t="n">
-        <v>1874.0</v>
+        <v>1871.0</v>
       </c>
       <c r="E751" t="n">
         <v>0.0</v>
@@ -24005,7 +24585,7 @@
         <v>520</v>
       </c>
       <c r="D752" t="n">
-        <v>1875.0</v>
+        <v>1872.0</v>
       </c>
       <c r="E752" t="n">
         <v>0.0</v>
@@ -24022,7 +24602,7 @@
         <v>521</v>
       </c>
       <c r="D753" t="n">
-        <v>1875.0</v>
+        <v>1872.0</v>
       </c>
       <c r="E753" t="n">
         <v>0.0</v>
@@ -24039,7 +24619,7 @@
         <v>520</v>
       </c>
       <c r="D754" t="n">
-        <v>1876.0</v>
+        <v>1873.0</v>
       </c>
       <c r="E754" t="n">
         <v>0.0</v>
@@ -24056,7 +24636,7 @@
         <v>521</v>
       </c>
       <c r="D755" t="n">
-        <v>1876.0</v>
+        <v>1873.0</v>
       </c>
       <c r="E755" t="n">
         <v>0.0</v>
@@ -24073,7 +24653,7 @@
         <v>520</v>
       </c>
       <c r="D756" t="n">
-        <v>1877.0</v>
+        <v>1874.0</v>
       </c>
       <c r="E756" t="n">
         <v>0.0</v>
@@ -24090,7 +24670,7 @@
         <v>521</v>
       </c>
       <c r="D757" t="n">
-        <v>1877.0</v>
+        <v>1874.0</v>
       </c>
       <c r="E757" t="n">
         <v>0.0</v>
@@ -24107,7 +24687,7 @@
         <v>520</v>
       </c>
       <c r="D758" t="n">
-        <v>1878.0</v>
+        <v>1875.0</v>
       </c>
       <c r="E758" t="n">
         <v>0.0</v>
@@ -24124,7 +24704,7 @@
         <v>521</v>
       </c>
       <c r="D759" t="n">
-        <v>1878.0</v>
+        <v>1875.0</v>
       </c>
       <c r="E759" t="n">
         <v>0.0</v>
@@ -24141,7 +24721,7 @@
         <v>520</v>
       </c>
       <c r="D760" t="n">
-        <v>1879.0</v>
+        <v>1876.0</v>
       </c>
       <c r="E760" t="n">
         <v>0.0</v>
@@ -24158,7 +24738,7 @@
         <v>521</v>
       </c>
       <c r="D761" t="n">
-        <v>1879.0</v>
+        <v>1876.0</v>
       </c>
       <c r="E761" t="n">
         <v>0.0</v>
@@ -24175,7 +24755,7 @@
         <v>520</v>
       </c>
       <c r="D762" t="n">
-        <v>1880.0</v>
+        <v>1877.0</v>
       </c>
       <c r="E762" t="n">
         <v>0.0</v>
@@ -24192,7 +24772,7 @@
         <v>521</v>
       </c>
       <c r="D763" t="n">
-        <v>1880.0</v>
+        <v>1877.0</v>
       </c>
       <c r="E763" t="n">
         <v>0.0</v>
@@ -24209,7 +24789,7 @@
         <v>520</v>
       </c>
       <c r="D764" t="n">
-        <v>1881.0</v>
+        <v>1878.0</v>
       </c>
       <c r="E764" t="n">
         <v>0.0</v>
@@ -24226,7 +24806,7 @@
         <v>521</v>
       </c>
       <c r="D765" t="n">
-        <v>1881.0</v>
+        <v>1878.0</v>
       </c>
       <c r="E765" t="n">
         <v>0.0</v>
@@ -24243,7 +24823,7 @@
         <v>520</v>
       </c>
       <c r="D766" t="n">
-        <v>1882.0</v>
+        <v>1879.0</v>
       </c>
       <c r="E766" t="n">
         <v>0.0</v>
@@ -24260,7 +24840,7 @@
         <v>521</v>
       </c>
       <c r="D767" t="n">
-        <v>1882.0</v>
+        <v>1879.0</v>
       </c>
       <c r="E767" t="n">
         <v>0.0</v>
@@ -24277,7 +24857,7 @@
         <v>520</v>
       </c>
       <c r="D768" t="n">
-        <v>1883.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E768" t="n">
         <v>0.0</v>
@@ -24294,7 +24874,7 @@
         <v>521</v>
       </c>
       <c r="D769" t="n">
-        <v>1883.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E769" t="n">
         <v>0.0</v>
@@ -24308,13 +24888,13 @@
         <v>519</v>
       </c>
       <c r="C770" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D770" t="n">
-        <v>1884.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E770" t="n">
-        <v>0.0</v>
+        <v>-0.71908195</v>
       </c>
     </row>
     <row r="771">
@@ -24325,10 +24905,10 @@
         <v>519</v>
       </c>
       <c r="C771" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D771" t="n">
-        <v>1884.0</v>
+        <v>1881.0</v>
       </c>
       <c r="E771" t="n">
         <v>0.0</v>
@@ -24342,10 +24922,10 @@
         <v>519</v>
       </c>
       <c r="C772" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D772" t="n">
-        <v>1885.0</v>
+        <v>1881.0</v>
       </c>
       <c r="E772" t="n">
         <v>0.0</v>
@@ -24359,10 +24939,10 @@
         <v>519</v>
       </c>
       <c r="C773" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D773" t="n">
-        <v>1885.0</v>
+        <v>1882.0</v>
       </c>
       <c r="E773" t="n">
         <v>0.0</v>
@@ -24376,10 +24956,10 @@
         <v>519</v>
       </c>
       <c r="C774" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D774" t="n">
-        <v>1886.0</v>
+        <v>1882.0</v>
       </c>
       <c r="E774" t="n">
         <v>0.0</v>
@@ -24393,10 +24973,10 @@
         <v>519</v>
       </c>
       <c r="C775" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D775" t="n">
-        <v>1886.0</v>
+        <v>1883.0</v>
       </c>
       <c r="E775" t="n">
         <v>0.0</v>
@@ -24410,10 +24990,10 @@
         <v>519</v>
       </c>
       <c r="C776" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D776" t="n">
-        <v>1887.0</v>
+        <v>1883.0</v>
       </c>
       <c r="E776" t="n">
         <v>0.0</v>
@@ -24427,10 +25007,10 @@
         <v>519</v>
       </c>
       <c r="C777" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D777" t="n">
-        <v>1887.0</v>
+        <v>1884.0</v>
       </c>
       <c r="E777" t="n">
         <v>0.0</v>
@@ -24444,10 +25024,10 @@
         <v>519</v>
       </c>
       <c r="C778" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D778" t="n">
-        <v>1888.0</v>
+        <v>1884.0</v>
       </c>
       <c r="E778" t="n">
         <v>0.0</v>
@@ -24461,10 +25041,10 @@
         <v>519</v>
       </c>
       <c r="C779" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D779" t="n">
-        <v>1888.0</v>
+        <v>1885.0</v>
       </c>
       <c r="E779" t="n">
         <v>0.0</v>
@@ -24478,10 +25058,10 @@
         <v>519</v>
       </c>
       <c r="C780" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D780" t="n">
-        <v>1889.0</v>
+        <v>1885.0</v>
       </c>
       <c r="E780" t="n">
         <v>0.0</v>
@@ -24495,10 +25075,10 @@
         <v>519</v>
       </c>
       <c r="C781" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D781" t="n">
-        <v>1889.0</v>
+        <v>1886.0</v>
       </c>
       <c r="E781" t="n">
         <v>0.0</v>
@@ -24512,10 +25092,10 @@
         <v>519</v>
       </c>
       <c r="C782" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D782" t="n">
-        <v>1890.0</v>
+        <v>1886.0</v>
       </c>
       <c r="E782" t="n">
         <v>0.0</v>
@@ -24529,10 +25109,10 @@
         <v>519</v>
       </c>
       <c r="C783" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D783" t="n">
-        <v>1890.0</v>
+        <v>1887.0</v>
       </c>
       <c r="E783" t="n">
         <v>0.0</v>
@@ -24546,10 +25126,10 @@
         <v>519</v>
       </c>
       <c r="C784" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D784" t="n">
-        <v>1891.0</v>
+        <v>1887.0</v>
       </c>
       <c r="E784" t="n">
         <v>0.0</v>
@@ -24563,10 +25143,10 @@
         <v>519</v>
       </c>
       <c r="C785" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D785" t="n">
-        <v>1891.0</v>
+        <v>1888.0</v>
       </c>
       <c r="E785" t="n">
         <v>0.0</v>
@@ -24580,10 +25160,10 @@
         <v>519</v>
       </c>
       <c r="C786" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D786" t="n">
-        <v>1892.0</v>
+        <v>1888.0</v>
       </c>
       <c r="E786" t="n">
         <v>0.0</v>
@@ -24597,10 +25177,10 @@
         <v>519</v>
       </c>
       <c r="C787" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D787" t="n">
-        <v>1892.0</v>
+        <v>1889.0</v>
       </c>
       <c r="E787" t="n">
         <v>0.0</v>
@@ -24614,10 +25194,10 @@
         <v>519</v>
       </c>
       <c r="C788" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D788" t="n">
-        <v>1893.0</v>
+        <v>1889.0</v>
       </c>
       <c r="E788" t="n">
         <v>0.0</v>
@@ -24631,10 +25211,10 @@
         <v>519</v>
       </c>
       <c r="C789" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D789" t="n">
-        <v>1893.0</v>
+        <v>1890.0</v>
       </c>
       <c r="E789" t="n">
         <v>0.0</v>
@@ -24648,10 +25228,10 @@
         <v>519</v>
       </c>
       <c r="C790" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D790" t="n">
-        <v>1894.0</v>
+        <v>1890.0</v>
       </c>
       <c r="E790" t="n">
         <v>0.0</v>
@@ -24665,13 +25245,13 @@
         <v>519</v>
       </c>
       <c r="C791" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D791" t="n">
-        <v>1894.0</v>
+        <v>1890.0</v>
       </c>
       <c r="E791" t="n">
-        <v>0.0</v>
+        <v>-0.72918971</v>
       </c>
     </row>
     <row r="792">
@@ -24685,7 +25265,7 @@
         <v>520</v>
       </c>
       <c r="D792" t="n">
-        <v>1895.0</v>
+        <v>1891.0</v>
       </c>
       <c r="E792" t="n">
         <v>0.0</v>
@@ -24702,7 +25282,7 @@
         <v>521</v>
       </c>
       <c r="D793" t="n">
-        <v>1895.0</v>
+        <v>1891.0</v>
       </c>
       <c r="E793" t="n">
         <v>0.0</v>
@@ -24719,7 +25299,7 @@
         <v>520</v>
       </c>
       <c r="D794" t="n">
-        <v>1896.0</v>
+        <v>1892.0</v>
       </c>
       <c r="E794" t="n">
         <v>0.0</v>
@@ -24736,7 +25316,7 @@
         <v>521</v>
       </c>
       <c r="D795" t="n">
-        <v>1896.0</v>
+        <v>1892.0</v>
       </c>
       <c r="E795" t="n">
         <v>0.0</v>
@@ -24753,7 +25333,7 @@
         <v>520</v>
       </c>
       <c r="D796" t="n">
-        <v>1897.0</v>
+        <v>1893.0</v>
       </c>
       <c r="E796" t="n">
         <v>0.0</v>
@@ -24770,7 +25350,7 @@
         <v>521</v>
       </c>
       <c r="D797" t="n">
-        <v>1897.0</v>
+        <v>1893.0</v>
       </c>
       <c r="E797" t="n">
         <v>0.0</v>
@@ -24787,7 +25367,7 @@
         <v>520</v>
       </c>
       <c r="D798" t="n">
-        <v>1898.0</v>
+        <v>1894.0</v>
       </c>
       <c r="E798" t="n">
         <v>0.0</v>
@@ -24804,7 +25384,7 @@
         <v>521</v>
       </c>
       <c r="D799" t="n">
-        <v>1898.0</v>
+        <v>1894.0</v>
       </c>
       <c r="E799" t="n">
         <v>0.0</v>
@@ -24821,7 +25401,7 @@
         <v>520</v>
       </c>
       <c r="D800" t="n">
-        <v>1899.0</v>
+        <v>1895.0</v>
       </c>
       <c r="E800" t="n">
         <v>0.0</v>
@@ -24838,7 +25418,7 @@
         <v>521</v>
       </c>
       <c r="D801" t="n">
-        <v>1899.0</v>
+        <v>1895.0</v>
       </c>
       <c r="E801" t="n">
         <v>0.0</v>
@@ -24855,7 +25435,7 @@
         <v>520</v>
       </c>
       <c r="D802" t="n">
-        <v>1900.0</v>
+        <v>1896.0</v>
       </c>
       <c r="E802" t="n">
         <v>0.0</v>
@@ -24872,7 +25452,7 @@
         <v>521</v>
       </c>
       <c r="D803" t="n">
-        <v>1900.0</v>
+        <v>1896.0</v>
       </c>
       <c r="E803" t="n">
         <v>0.0</v>
@@ -24889,7 +25469,7 @@
         <v>520</v>
       </c>
       <c r="D804" t="n">
-        <v>1901.0</v>
+        <v>1897.0</v>
       </c>
       <c r="E804" t="n">
         <v>0.0</v>
@@ -24906,7 +25486,7 @@
         <v>521</v>
       </c>
       <c r="D805" t="n">
-        <v>1901.0</v>
+        <v>1897.0</v>
       </c>
       <c r="E805" t="n">
         <v>0.0</v>
@@ -24923,7 +25503,7 @@
         <v>520</v>
       </c>
       <c r="D806" t="n">
-        <v>1902.0</v>
+        <v>1898.0</v>
       </c>
       <c r="E806" t="n">
         <v>0.0</v>
@@ -24940,7 +25520,7 @@
         <v>521</v>
       </c>
       <c r="D807" t="n">
-        <v>1902.0</v>
+        <v>1898.0</v>
       </c>
       <c r="E807" t="n">
         <v>0.0</v>
@@ -24957,7 +25537,7 @@
         <v>520</v>
       </c>
       <c r="D808" t="n">
-        <v>1903.0</v>
+        <v>1899.0</v>
       </c>
       <c r="E808" t="n">
         <v>0.0</v>
@@ -24974,7 +25554,7 @@
         <v>521</v>
       </c>
       <c r="D809" t="n">
-        <v>1903.0</v>
+        <v>1899.0</v>
       </c>
       <c r="E809" t="n">
         <v>0.0</v>
@@ -24991,7 +25571,7 @@
         <v>520</v>
       </c>
       <c r="D810" t="n">
-        <v>1904.0</v>
+        <v>1900.0</v>
       </c>
       <c r="E810" t="n">
         <v>0.0</v>
@@ -25008,7 +25588,7 @@
         <v>521</v>
       </c>
       <c r="D811" t="n">
-        <v>1904.0</v>
+        <v>1900.0</v>
       </c>
       <c r="E811" t="n">
         <v>0.0</v>
@@ -25022,13 +25602,13 @@
         <v>519</v>
       </c>
       <c r="C812" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D812" t="n">
-        <v>1905.0</v>
+        <v>1900.0</v>
       </c>
       <c r="E812" t="n">
-        <v>0.0</v>
+        <v>-0.80512927</v>
       </c>
     </row>
     <row r="813">
@@ -25039,10 +25619,10 @@
         <v>519</v>
       </c>
       <c r="C813" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D813" t="n">
-        <v>1905.0</v>
+        <v>1901.0</v>
       </c>
       <c r="E813" t="n">
         <v>0.0</v>
@@ -25056,10 +25636,10 @@
         <v>519</v>
       </c>
       <c r="C814" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D814" t="n">
-        <v>1906.0</v>
+        <v>1901.0</v>
       </c>
       <c r="E814" t="n">
         <v>0.0</v>
@@ -25073,10 +25653,10 @@
         <v>519</v>
       </c>
       <c r="C815" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D815" t="n">
-        <v>1906.0</v>
+        <v>1902.0</v>
       </c>
       <c r="E815" t="n">
         <v>0.0</v>
@@ -25090,10 +25670,10 @@
         <v>519</v>
       </c>
       <c r="C816" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D816" t="n">
-        <v>1907.0</v>
+        <v>1902.0</v>
       </c>
       <c r="E816" t="n">
         <v>0.0</v>
@@ -25107,10 +25687,10 @@
         <v>519</v>
       </c>
       <c r="C817" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D817" t="n">
-        <v>1907.0</v>
+        <v>1903.0</v>
       </c>
       <c r="E817" t="n">
         <v>0.0</v>
@@ -25124,10 +25704,10 @@
         <v>519</v>
       </c>
       <c r="C818" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D818" t="n">
-        <v>1908.0</v>
+        <v>1903.0</v>
       </c>
       <c r="E818" t="n">
         <v>0.0</v>
@@ -25141,10 +25721,10 @@
         <v>519</v>
       </c>
       <c r="C819" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D819" t="n">
-        <v>1908.0</v>
+        <v>1904.0</v>
       </c>
       <c r="E819" t="n">
         <v>0.0</v>
@@ -25158,10 +25738,10 @@
         <v>519</v>
       </c>
       <c r="C820" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D820" t="n">
-        <v>1909.0</v>
+        <v>1904.0</v>
       </c>
       <c r="E820" t="n">
         <v>0.0</v>
@@ -25175,10 +25755,10 @@
         <v>519</v>
       </c>
       <c r="C821" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D821" t="n">
-        <v>1909.0</v>
+        <v>1905.0</v>
       </c>
       <c r="E821" t="n">
         <v>0.0</v>
@@ -25192,10 +25772,10 @@
         <v>519</v>
       </c>
       <c r="C822" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D822" t="n">
-        <v>1910.0</v>
+        <v>1905.0</v>
       </c>
       <c r="E822" t="n">
         <v>0.0</v>
@@ -25209,10 +25789,10 @@
         <v>519</v>
       </c>
       <c r="C823" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D823" t="n">
-        <v>1910.0</v>
+        <v>1906.0</v>
       </c>
       <c r="E823" t="n">
         <v>0.0</v>
@@ -25226,10 +25806,10 @@
         <v>519</v>
       </c>
       <c r="C824" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D824" t="n">
-        <v>1911.0</v>
+        <v>1906.0</v>
       </c>
       <c r="E824" t="n">
         <v>0.0</v>
@@ -25243,10 +25823,10 @@
         <v>519</v>
       </c>
       <c r="C825" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D825" t="n">
-        <v>1911.0</v>
+        <v>1907.0</v>
       </c>
       <c r="E825" t="n">
         <v>0.0</v>
@@ -25260,10 +25840,10 @@
         <v>519</v>
       </c>
       <c r="C826" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D826" t="n">
-        <v>1912.0</v>
+        <v>1907.0</v>
       </c>
       <c r="E826" t="n">
         <v>0.0</v>
@@ -25277,10 +25857,10 @@
         <v>519</v>
       </c>
       <c r="C827" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D827" t="n">
-        <v>1912.0</v>
+        <v>1908.0</v>
       </c>
       <c r="E827" t="n">
         <v>0.0</v>
@@ -25294,10 +25874,10 @@
         <v>519</v>
       </c>
       <c r="C828" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D828" t="n">
-        <v>1913.0</v>
+        <v>1908.0</v>
       </c>
       <c r="E828" t="n">
         <v>0.0</v>
@@ -25311,10 +25891,10 @@
         <v>519</v>
       </c>
       <c r="C829" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D829" t="n">
-        <v>1913.0</v>
+        <v>1909.0</v>
       </c>
       <c r="E829" t="n">
         <v>0.0</v>
@@ -25328,10 +25908,10 @@
         <v>519</v>
       </c>
       <c r="C830" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D830" t="n">
-        <v>1914.0</v>
+        <v>1909.0</v>
       </c>
       <c r="E830" t="n">
         <v>0.0</v>
@@ -25345,10 +25925,10 @@
         <v>519</v>
       </c>
       <c r="C831" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D831" t="n">
-        <v>1914.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E831" t="n">
         <v>0.0</v>
@@ -25362,10 +25942,10 @@
         <v>519</v>
       </c>
       <c r="C832" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D832" t="n">
-        <v>1915.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E832" t="n">
         <v>0.0</v>
@@ -25379,13 +25959,13 @@
         <v>519</v>
       </c>
       <c r="C833" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D833" t="n">
-        <v>1915.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E833" t="n">
-        <v>0.0</v>
+        <v>-0.62563155</v>
       </c>
     </row>
     <row r="834">
@@ -25399,7 +25979,7 @@
         <v>520</v>
       </c>
       <c r="D834" t="n">
-        <v>1916.0</v>
+        <v>1911.0</v>
       </c>
       <c r="E834" t="n">
         <v>0.0</v>
@@ -25416,7 +25996,7 @@
         <v>521</v>
       </c>
       <c r="D835" t="n">
-        <v>1916.0</v>
+        <v>1911.0</v>
       </c>
       <c r="E835" t="n">
         <v>0.0</v>
@@ -25433,7 +26013,7 @@
         <v>520</v>
       </c>
       <c r="D836" t="n">
-        <v>1917.0</v>
+        <v>1912.0</v>
       </c>
       <c r="E836" t="n">
         <v>0.0</v>
@@ -25450,7 +26030,7 @@
         <v>521</v>
       </c>
       <c r="D837" t="n">
-        <v>1917.0</v>
+        <v>1912.0</v>
       </c>
       <c r="E837" t="n">
         <v>0.0</v>
@@ -25467,7 +26047,7 @@
         <v>520</v>
       </c>
       <c r="D838" t="n">
-        <v>1918.0</v>
+        <v>1913.0</v>
       </c>
       <c r="E838" t="n">
         <v>0.0</v>
@@ -25484,7 +26064,7 @@
         <v>521</v>
       </c>
       <c r="D839" t="n">
-        <v>1918.0</v>
+        <v>1913.0</v>
       </c>
       <c r="E839" t="n">
         <v>0.0</v>
@@ -25501,7 +26081,7 @@
         <v>520</v>
       </c>
       <c r="D840" t="n">
-        <v>1919.0</v>
+        <v>1914.0</v>
       </c>
       <c r="E840" t="n">
         <v>0.0</v>
@@ -25518,7 +26098,7 @@
         <v>521</v>
       </c>
       <c r="D841" t="n">
-        <v>1919.0</v>
+        <v>1914.0</v>
       </c>
       <c r="E841" t="n">
         <v>0.0</v>
@@ -25535,7 +26115,7 @@
         <v>520</v>
       </c>
       <c r="D842" t="n">
-        <v>1920.0</v>
+        <v>1915.0</v>
       </c>
       <c r="E842" t="n">
         <v>0.0</v>
@@ -25552,7 +26132,7 @@
         <v>521</v>
       </c>
       <c r="D843" t="n">
-        <v>1920.0</v>
+        <v>1915.0</v>
       </c>
       <c r="E843" t="n">
         <v>0.0</v>
@@ -25569,7 +26149,7 @@
         <v>520</v>
       </c>
       <c r="D844" t="n">
-        <v>1921.0</v>
+        <v>1916.0</v>
       </c>
       <c r="E844" t="n">
         <v>0.0</v>
@@ -25586,7 +26166,7 @@
         <v>521</v>
       </c>
       <c r="D845" t="n">
-        <v>1921.0</v>
+        <v>1916.0</v>
       </c>
       <c r="E845" t="n">
         <v>0.0</v>
@@ -25603,7 +26183,7 @@
         <v>520</v>
       </c>
       <c r="D846" t="n">
-        <v>1922.0</v>
+        <v>1917.0</v>
       </c>
       <c r="E846" t="n">
         <v>0.0</v>
@@ -25620,7 +26200,7 @@
         <v>521</v>
       </c>
       <c r="D847" t="n">
-        <v>1922.0</v>
+        <v>1917.0</v>
       </c>
       <c r="E847" t="n">
         <v>0.0</v>
@@ -25637,7 +26217,7 @@
         <v>520</v>
       </c>
       <c r="D848" t="n">
-        <v>1923.0</v>
+        <v>1918.0</v>
       </c>
       <c r="E848" t="n">
         <v>0.0</v>
@@ -25654,7 +26234,7 @@
         <v>521</v>
       </c>
       <c r="D849" t="n">
-        <v>1923.0</v>
+        <v>1918.0</v>
       </c>
       <c r="E849" t="n">
         <v>0.0</v>
@@ -25671,7 +26251,7 @@
         <v>520</v>
       </c>
       <c r="D850" t="n">
-        <v>1924.0</v>
+        <v>1919.0</v>
       </c>
       <c r="E850" t="n">
         <v>0.0</v>
@@ -25688,7 +26268,7 @@
         <v>521</v>
       </c>
       <c r="D851" t="n">
-        <v>1924.0</v>
+        <v>1919.0</v>
       </c>
       <c r="E851" t="n">
         <v>0.0</v>
@@ -25705,7 +26285,7 @@
         <v>520</v>
       </c>
       <c r="D852" t="n">
-        <v>1925.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E852" t="n">
         <v>0.0</v>
@@ -25722,7 +26302,7 @@
         <v>521</v>
       </c>
       <c r="D853" t="n">
-        <v>1925.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E853" t="n">
         <v>0.0</v>
@@ -25736,13 +26316,13 @@
         <v>519</v>
       </c>
       <c r="C854" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D854" t="n">
-        <v>1926.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E854" t="n">
-        <v>0.0</v>
+        <v>-0.6795895</v>
       </c>
     </row>
     <row r="855">
@@ -25753,10 +26333,10 @@
         <v>519</v>
       </c>
       <c r="C855" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D855" t="n">
-        <v>1926.0</v>
+        <v>1921.0</v>
       </c>
       <c r="E855" t="n">
         <v>0.0</v>
@@ -25770,10 +26350,10 @@
         <v>519</v>
       </c>
       <c r="C856" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D856" t="n">
-        <v>1927.0</v>
+        <v>1921.0</v>
       </c>
       <c r="E856" t="n">
         <v>0.0</v>
@@ -25787,10 +26367,10 @@
         <v>519</v>
       </c>
       <c r="C857" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D857" t="n">
-        <v>1927.0</v>
+        <v>1922.0</v>
       </c>
       <c r="E857" t="n">
         <v>0.0</v>
@@ -25804,10 +26384,10 @@
         <v>519</v>
       </c>
       <c r="C858" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D858" t="n">
-        <v>1928.0</v>
+        <v>1922.0</v>
       </c>
       <c r="E858" t="n">
         <v>0.0</v>
@@ -25821,10 +26401,10 @@
         <v>519</v>
       </c>
       <c r="C859" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D859" t="n">
-        <v>1928.0</v>
+        <v>1923.0</v>
       </c>
       <c r="E859" t="n">
         <v>0.0</v>
@@ -25838,10 +26418,10 @@
         <v>519</v>
       </c>
       <c r="C860" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D860" t="n">
-        <v>1929.0</v>
+        <v>1923.0</v>
       </c>
       <c r="E860" t="n">
         <v>0.0</v>
@@ -25855,10 +26435,10 @@
         <v>519</v>
       </c>
       <c r="C861" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D861" t="n">
-        <v>1929.0</v>
+        <v>1924.0</v>
       </c>
       <c r="E861" t="n">
         <v>0.0</v>
@@ -25872,10 +26452,10 @@
         <v>519</v>
       </c>
       <c r="C862" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D862" t="n">
-        <v>1930.0</v>
+        <v>1924.0</v>
       </c>
       <c r="E862" t="n">
         <v>0.0</v>
@@ -25889,10 +26469,10 @@
         <v>519</v>
       </c>
       <c r="C863" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D863" t="n">
-        <v>1930.0</v>
+        <v>1925.0</v>
       </c>
       <c r="E863" t="n">
         <v>0.0</v>
@@ -25906,10 +26486,10 @@
         <v>519</v>
       </c>
       <c r="C864" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D864" t="n">
-        <v>1931.0</v>
+        <v>1925.0</v>
       </c>
       <c r="E864" t="n">
         <v>0.0</v>
@@ -25923,10 +26503,10 @@
         <v>519</v>
       </c>
       <c r="C865" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D865" t="n">
-        <v>1931.0</v>
+        <v>1926.0</v>
       </c>
       <c r="E865" t="n">
         <v>0.0</v>
@@ -25940,10 +26520,10 @@
         <v>519</v>
       </c>
       <c r="C866" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D866" t="n">
-        <v>1932.0</v>
+        <v>1926.0</v>
       </c>
       <c r="E866" t="n">
         <v>0.0</v>
@@ -25957,10 +26537,10 @@
         <v>519</v>
       </c>
       <c r="C867" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D867" t="n">
-        <v>1932.0</v>
+        <v>1927.0</v>
       </c>
       <c r="E867" t="n">
         <v>0.0</v>
@@ -25974,10 +26554,10 @@
         <v>519</v>
       </c>
       <c r="C868" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D868" t="n">
-        <v>1933.0</v>
+        <v>1927.0</v>
       </c>
       <c r="E868" t="n">
         <v>0.0</v>
@@ -25991,10 +26571,10 @@
         <v>519</v>
       </c>
       <c r="C869" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D869" t="n">
-        <v>1933.0</v>
+        <v>1928.0</v>
       </c>
       <c r="E869" t="n">
         <v>0.0</v>
@@ -26008,10 +26588,10 @@
         <v>519</v>
       </c>
       <c r="C870" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D870" t="n">
-        <v>1934.0</v>
+        <v>1928.0</v>
       </c>
       <c r="E870" t="n">
         <v>0.0</v>
@@ -26025,10 +26605,10 @@
         <v>519</v>
       </c>
       <c r="C871" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D871" t="n">
-        <v>1934.0</v>
+        <v>1929.0</v>
       </c>
       <c r="E871" t="n">
         <v>0.0</v>
@@ -26042,10 +26622,10 @@
         <v>519</v>
       </c>
       <c r="C872" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D872" t="n">
-        <v>1935.0</v>
+        <v>1929.0</v>
       </c>
       <c r="E872" t="n">
         <v>0.0</v>
@@ -26059,10 +26639,10 @@
         <v>519</v>
       </c>
       <c r="C873" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D873" t="n">
-        <v>1935.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E873" t="n">
         <v>0.0</v>
@@ -26076,10 +26656,10 @@
         <v>519</v>
       </c>
       <c r="C874" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D874" t="n">
-        <v>1936.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E874" t="n">
         <v>0.0</v>
@@ -26093,13 +26673,13 @@
         <v>519</v>
       </c>
       <c r="C875" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D875" t="n">
-        <v>1936.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E875" t="n">
-        <v>0.0</v>
+        <v>-0.58560768</v>
       </c>
     </row>
     <row r="876">
@@ -26113,7 +26693,7 @@
         <v>520</v>
       </c>
       <c r="D876" t="n">
-        <v>1937.0</v>
+        <v>1931.0</v>
       </c>
       <c r="E876" t="n">
         <v>0.0</v>
@@ -26130,7 +26710,7 @@
         <v>521</v>
       </c>
       <c r="D877" t="n">
-        <v>1937.0</v>
+        <v>1931.0</v>
       </c>
       <c r="E877" t="n">
         <v>0.0</v>
@@ -26147,7 +26727,7 @@
         <v>520</v>
       </c>
       <c r="D878" t="n">
-        <v>1938.0</v>
+        <v>1932.0</v>
       </c>
       <c r="E878" t="n">
         <v>0.0</v>
@@ -26164,7 +26744,7 @@
         <v>521</v>
       </c>
       <c r="D879" t="n">
-        <v>1938.0</v>
+        <v>1932.0</v>
       </c>
       <c r="E879" t="n">
         <v>0.0</v>
@@ -26181,7 +26761,7 @@
         <v>520</v>
       </c>
       <c r="D880" t="n">
-        <v>1939.0</v>
+        <v>1933.0</v>
       </c>
       <c r="E880" t="n">
         <v>0.0</v>
@@ -26198,7 +26778,7 @@
         <v>521</v>
       </c>
       <c r="D881" t="n">
-        <v>1939.0</v>
+        <v>1933.0</v>
       </c>
       <c r="E881" t="n">
         <v>0.0</v>
@@ -26215,7 +26795,7 @@
         <v>520</v>
       </c>
       <c r="D882" t="n">
-        <v>1940.0</v>
+        <v>1934.0</v>
       </c>
       <c r="E882" t="n">
         <v>0.0</v>
@@ -26232,7 +26812,7 @@
         <v>521</v>
       </c>
       <c r="D883" t="n">
-        <v>1940.0</v>
+        <v>1934.0</v>
       </c>
       <c r="E883" t="n">
         <v>0.0</v>
@@ -26249,7 +26829,7 @@
         <v>520</v>
       </c>
       <c r="D884" t="n">
-        <v>1941.0</v>
+        <v>1935.0</v>
       </c>
       <c r="E884" t="n">
         <v>0.0</v>
@@ -26266,7 +26846,7 @@
         <v>521</v>
       </c>
       <c r="D885" t="n">
-        <v>1941.0</v>
+        <v>1935.0</v>
       </c>
       <c r="E885" t="n">
         <v>0.0</v>
@@ -26283,7 +26863,7 @@
         <v>520</v>
       </c>
       <c r="D886" t="n">
-        <v>1942.0</v>
+        <v>1936.0</v>
       </c>
       <c r="E886" t="n">
         <v>0.0</v>
@@ -26300,7 +26880,7 @@
         <v>521</v>
       </c>
       <c r="D887" t="n">
-        <v>1942.0</v>
+        <v>1936.0</v>
       </c>
       <c r="E887" t="n">
         <v>0.0</v>
@@ -26317,7 +26897,7 @@
         <v>520</v>
       </c>
       <c r="D888" t="n">
-        <v>1943.0</v>
+        <v>1937.0</v>
       </c>
       <c r="E888" t="n">
         <v>0.0</v>
@@ -26334,7 +26914,7 @@
         <v>521</v>
       </c>
       <c r="D889" t="n">
-        <v>1943.0</v>
+        <v>1937.0</v>
       </c>
       <c r="E889" t="n">
         <v>0.0</v>
@@ -26351,7 +26931,7 @@
         <v>520</v>
       </c>
       <c r="D890" t="n">
-        <v>1944.0</v>
+        <v>1938.0</v>
       </c>
       <c r="E890" t="n">
         <v>0.0</v>
@@ -26368,7 +26948,7 @@
         <v>521</v>
       </c>
       <c r="D891" t="n">
-        <v>1944.0</v>
+        <v>1938.0</v>
       </c>
       <c r="E891" t="n">
         <v>0.0</v>
@@ -26385,7 +26965,7 @@
         <v>520</v>
       </c>
       <c r="D892" t="n">
-        <v>1945.0</v>
+        <v>1939.0</v>
       </c>
       <c r="E892" t="n">
         <v>0.0</v>
@@ -26402,7 +26982,7 @@
         <v>521</v>
       </c>
       <c r="D893" t="n">
-        <v>1945.0</v>
+        <v>1939.0</v>
       </c>
       <c r="E893" t="n">
         <v>0.0</v>
@@ -26419,7 +26999,7 @@
         <v>520</v>
       </c>
       <c r="D894" t="n">
-        <v>1946.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E894" t="n">
         <v>0.0</v>
@@ -26436,7 +27016,7 @@
         <v>521</v>
       </c>
       <c r="D895" t="n">
-        <v>1946.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E895" t="n">
         <v>0.0</v>
@@ -26450,13 +27030,13 @@
         <v>519</v>
       </c>
       <c r="C896" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D896" t="n">
-        <v>1947.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E896" t="n">
-        <v>0.0</v>
+        <v>-0.40575311</v>
       </c>
     </row>
     <row r="897">
@@ -26467,10 +27047,10 @@
         <v>519</v>
       </c>
       <c r="C897" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D897" t="n">
-        <v>1947.0</v>
+        <v>1941.0</v>
       </c>
       <c r="E897" t="n">
         <v>0.0</v>
@@ -26484,10 +27064,10 @@
         <v>519</v>
       </c>
       <c r="C898" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D898" t="n">
-        <v>1948.0</v>
+        <v>1941.0</v>
       </c>
       <c r="E898" t="n">
         <v>0.0</v>
@@ -26501,10 +27081,10 @@
         <v>519</v>
       </c>
       <c r="C899" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D899" t="n">
-        <v>1948.0</v>
+        <v>1942.0</v>
       </c>
       <c r="E899" t="n">
         <v>0.0</v>
@@ -26518,10 +27098,10 @@
         <v>519</v>
       </c>
       <c r="C900" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D900" t="n">
-        <v>1949.0</v>
+        <v>1942.0</v>
       </c>
       <c r="E900" t="n">
         <v>0.0</v>
@@ -26535,10 +27115,10 @@
         <v>519</v>
       </c>
       <c r="C901" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D901" t="n">
-        <v>1949.0</v>
+        <v>1943.0</v>
       </c>
       <c r="E901" t="n">
         <v>0.0</v>
@@ -26552,10 +27132,10 @@
         <v>519</v>
       </c>
       <c r="C902" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D902" t="n">
-        <v>1950.0</v>
+        <v>1943.0</v>
       </c>
       <c r="E902" t="n">
         <v>0.0</v>
@@ -26569,10 +27149,10 @@
         <v>519</v>
       </c>
       <c r="C903" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D903" t="n">
-        <v>1950.0</v>
+        <v>1944.0</v>
       </c>
       <c r="E903" t="n">
         <v>0.0</v>
@@ -26586,10 +27166,10 @@
         <v>519</v>
       </c>
       <c r="C904" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D904" t="n">
-        <v>1951.0</v>
+        <v>1944.0</v>
       </c>
       <c r="E904" t="n">
         <v>0.0</v>
@@ -26603,10 +27183,10 @@
         <v>519</v>
       </c>
       <c r="C905" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D905" t="n">
-        <v>1951.0</v>
+        <v>1945.0</v>
       </c>
       <c r="E905" t="n">
         <v>0.0</v>
@@ -26620,10 +27200,10 @@
         <v>519</v>
       </c>
       <c r="C906" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D906" t="n">
-        <v>1952.0</v>
+        <v>1945.0</v>
       </c>
       <c r="E906" t="n">
         <v>0.0</v>
@@ -26637,10 +27217,10 @@
         <v>519</v>
       </c>
       <c r="C907" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D907" t="n">
-        <v>1952.0</v>
+        <v>1946.0</v>
       </c>
       <c r="E907" t="n">
         <v>0.0</v>
@@ -26654,10 +27234,10 @@
         <v>519</v>
       </c>
       <c r="C908" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D908" t="n">
-        <v>1953.0</v>
+        <v>1946.0</v>
       </c>
       <c r="E908" t="n">
         <v>0.0</v>
@@ -26671,10 +27251,10 @@
         <v>519</v>
       </c>
       <c r="C909" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D909" t="n">
-        <v>1953.0</v>
+        <v>1947.0</v>
       </c>
       <c r="E909" t="n">
         <v>0.0</v>
@@ -26688,10 +27268,10 @@
         <v>519</v>
       </c>
       <c r="C910" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D910" t="n">
-        <v>1954.0</v>
+        <v>1947.0</v>
       </c>
       <c r="E910" t="n">
         <v>0.0</v>
@@ -26705,10 +27285,10 @@
         <v>519</v>
       </c>
       <c r="C911" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D911" t="n">
-        <v>1954.0</v>
+        <v>1948.0</v>
       </c>
       <c r="E911" t="n">
         <v>0.0</v>
@@ -26722,10 +27302,10 @@
         <v>519</v>
       </c>
       <c r="C912" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D912" t="n">
-        <v>1955.0</v>
+        <v>1948.0</v>
       </c>
       <c r="E912" t="n">
         <v>0.0</v>
@@ -26739,10 +27319,10 @@
         <v>519</v>
       </c>
       <c r="C913" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D913" t="n">
-        <v>1955.0</v>
+        <v>1949.0</v>
       </c>
       <c r="E913" t="n">
         <v>0.0</v>
@@ -26756,10 +27336,10 @@
         <v>519</v>
       </c>
       <c r="C914" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D914" t="n">
-        <v>1956.0</v>
+        <v>1949.0</v>
       </c>
       <c r="E914" t="n">
         <v>0.0</v>
@@ -26773,10 +27353,10 @@
         <v>519</v>
       </c>
       <c r="C915" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D915" t="n">
-        <v>1956.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E915" t="n">
         <v>0.0</v>
@@ -26790,10 +27370,10 @@
         <v>519</v>
       </c>
       <c r="C916" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D916" t="n">
-        <v>1957.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E916" t="n">
         <v>0.0</v>
@@ -26807,13 +27387,13 @@
         <v>519</v>
       </c>
       <c r="C917" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D917" t="n">
-        <v>1957.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E917" t="n">
-        <v>0.0</v>
+        <v>-0.64296372</v>
       </c>
     </row>
     <row r="918">
@@ -26827,7 +27407,7 @@
         <v>520</v>
       </c>
       <c r="D918" t="n">
-        <v>1958.0</v>
+        <v>1951.0</v>
       </c>
       <c r="E918" t="n">
         <v>0.0</v>
@@ -26844,7 +27424,7 @@
         <v>521</v>
       </c>
       <c r="D919" t="n">
-        <v>1958.0</v>
+        <v>1951.0</v>
       </c>
       <c r="E919" t="n">
         <v>0.0</v>
@@ -26861,7 +27441,7 @@
         <v>520</v>
       </c>
       <c r="D920" t="n">
-        <v>1959.0</v>
+        <v>1952.0</v>
       </c>
       <c r="E920" t="n">
         <v>0.0</v>
@@ -26878,7 +27458,7 @@
         <v>521</v>
       </c>
       <c r="D921" t="n">
-        <v>1959.0</v>
+        <v>1952.0</v>
       </c>
       <c r="E921" t="n">
         <v>0.0</v>
@@ -26895,7 +27475,7 @@
         <v>520</v>
       </c>
       <c r="D922" t="n">
-        <v>1960.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E922" t="n">
         <v>0.0</v>
@@ -26912,7 +27492,7 @@
         <v>521</v>
       </c>
       <c r="D923" t="n">
-        <v>1960.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E923" t="n">
         <v>0.0</v>
@@ -26929,7 +27509,7 @@
         <v>520</v>
       </c>
       <c r="D924" t="n">
-        <v>1961.0</v>
+        <v>1954.0</v>
       </c>
       <c r="E924" t="n">
         <v>0.0</v>
@@ -26946,7 +27526,7 @@
         <v>521</v>
       </c>
       <c r="D925" t="n">
-        <v>1961.0</v>
+        <v>1954.0</v>
       </c>
       <c r="E925" t="n">
         <v>0.0</v>
@@ -26963,7 +27543,7 @@
         <v>520</v>
       </c>
       <c r="D926" t="n">
-        <v>1962.0</v>
+        <v>1955.0</v>
       </c>
       <c r="E926" t="n">
         <v>0.0</v>
@@ -26980,7 +27560,7 @@
         <v>521</v>
       </c>
       <c r="D927" t="n">
-        <v>1962.0</v>
+        <v>1955.0</v>
       </c>
       <c r="E927" t="n">
         <v>0.0</v>
@@ -26997,7 +27577,7 @@
         <v>520</v>
       </c>
       <c r="D928" t="n">
-        <v>1963.0</v>
+        <v>1956.0</v>
       </c>
       <c r="E928" t="n">
         <v>0.0</v>
@@ -27014,7 +27594,7 @@
         <v>521</v>
       </c>
       <c r="D929" t="n">
-        <v>1963.0</v>
+        <v>1956.0</v>
       </c>
       <c r="E929" t="n">
         <v>0.0</v>
@@ -27031,7 +27611,7 @@
         <v>520</v>
       </c>
       <c r="D930" t="n">
-        <v>1964.0</v>
+        <v>1957.0</v>
       </c>
       <c r="E930" t="n">
         <v>0.0</v>
@@ -27048,7 +27628,7 @@
         <v>521</v>
       </c>
       <c r="D931" t="n">
-        <v>1964.0</v>
+        <v>1957.0</v>
       </c>
       <c r="E931" t="n">
         <v>0.0</v>
@@ -27065,7 +27645,7 @@
         <v>520</v>
       </c>
       <c r="D932" t="n">
-        <v>1965.0</v>
+        <v>1958.0</v>
       </c>
       <c r="E932" t="n">
         <v>0.0</v>
@@ -27082,7 +27662,7 @@
         <v>521</v>
       </c>
       <c r="D933" t="n">
-        <v>1965.0</v>
+        <v>1958.0</v>
       </c>
       <c r="E933" t="n">
         <v>0.0</v>
@@ -27099,7 +27679,7 @@
         <v>520</v>
       </c>
       <c r="D934" t="n">
-        <v>1966.0</v>
+        <v>1959.0</v>
       </c>
       <c r="E934" t="n">
         <v>0.0</v>
@@ -27116,7 +27696,7 @@
         <v>521</v>
       </c>
       <c r="D935" t="n">
-        <v>1966.0</v>
+        <v>1959.0</v>
       </c>
       <c r="E935" t="n">
         <v>0.0</v>
@@ -27133,7 +27713,7 @@
         <v>520</v>
       </c>
       <c r="D936" t="n">
-        <v>1967.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E936" t="n">
         <v>0.0</v>
@@ -27150,7 +27730,7 @@
         <v>521</v>
       </c>
       <c r="D937" t="n">
-        <v>1967.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E937" t="n">
         <v>0.0</v>
@@ -27164,13 +27744,13 @@
         <v>519</v>
       </c>
       <c r="C938" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D938" t="n">
-        <v>1968.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E938" t="n">
-        <v>0.0</v>
+        <v>-0.34438327</v>
       </c>
     </row>
     <row r="939">
@@ -27181,10 +27761,10 @@
         <v>519</v>
       </c>
       <c r="C939" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D939" t="n">
-        <v>1968.0</v>
+        <v>1961.0</v>
       </c>
       <c r="E939" t="n">
         <v>0.0</v>
@@ -27198,10 +27778,10 @@
         <v>519</v>
       </c>
       <c r="C940" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D940" t="n">
-        <v>1969.0</v>
+        <v>1961.0</v>
       </c>
       <c r="E940" t="n">
         <v>0.0</v>
@@ -27215,10 +27795,10 @@
         <v>519</v>
       </c>
       <c r="C941" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D941" t="n">
-        <v>1969.0</v>
+        <v>1962.0</v>
       </c>
       <c r="E941" t="n">
         <v>0.0</v>
@@ -27232,10 +27812,10 @@
         <v>519</v>
       </c>
       <c r="C942" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D942" t="n">
-        <v>1970.0</v>
+        <v>1962.0</v>
       </c>
       <c r="E942" t="n">
         <v>0.0</v>
@@ -27249,10 +27829,10 @@
         <v>519</v>
       </c>
       <c r="C943" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D943" t="n">
-        <v>1970.0</v>
+        <v>1963.0</v>
       </c>
       <c r="E943" t="n">
         <v>0.0</v>
@@ -27266,10 +27846,10 @@
         <v>519</v>
       </c>
       <c r="C944" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D944" t="n">
-        <v>1971.0</v>
+        <v>1963.0</v>
       </c>
       <c r="E944" t="n">
         <v>0.0</v>
@@ -27283,10 +27863,10 @@
         <v>519</v>
       </c>
       <c r="C945" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D945" t="n">
-        <v>1971.0</v>
+        <v>1964.0</v>
       </c>
       <c r="E945" t="n">
         <v>0.0</v>
@@ -27300,10 +27880,10 @@
         <v>519</v>
       </c>
       <c r="C946" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D946" t="n">
-        <v>1972.0</v>
+        <v>1964.0</v>
       </c>
       <c r="E946" t="n">
         <v>0.0</v>
@@ -27317,10 +27897,10 @@
         <v>519</v>
       </c>
       <c r="C947" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D947" t="n">
-        <v>1972.0</v>
+        <v>1965.0</v>
       </c>
       <c r="E947" t="n">
         <v>0.0</v>
@@ -27334,10 +27914,10 @@
         <v>519</v>
       </c>
       <c r="C948" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D948" t="n">
-        <v>1973.0</v>
+        <v>1965.0</v>
       </c>
       <c r="E948" t="n">
         <v>0.0</v>
@@ -27351,10 +27931,10 @@
         <v>519</v>
       </c>
       <c r="C949" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D949" t="n">
-        <v>1973.0</v>
+        <v>1966.0</v>
       </c>
       <c r="E949" t="n">
         <v>0.0</v>
@@ -27368,10 +27948,10 @@
         <v>519</v>
       </c>
       <c r="C950" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D950" t="n">
-        <v>1974.0</v>
+        <v>1966.0</v>
       </c>
       <c r="E950" t="n">
         <v>0.0</v>
@@ -27385,10 +27965,10 @@
         <v>519</v>
       </c>
       <c r="C951" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D951" t="n">
-        <v>1974.0</v>
+        <v>1967.0</v>
       </c>
       <c r="E951" t="n">
         <v>0.0</v>
@@ -27402,10 +27982,10 @@
         <v>519</v>
       </c>
       <c r="C952" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D952" t="n">
-        <v>1975.0</v>
+        <v>1967.0</v>
       </c>
       <c r="E952" t="n">
         <v>0.0</v>
@@ -27419,10 +27999,10 @@
         <v>519</v>
       </c>
       <c r="C953" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D953" t="n">
-        <v>1975.0</v>
+        <v>1968.0</v>
       </c>
       <c r="E953" t="n">
         <v>0.0</v>
@@ -27436,10 +28016,10 @@
         <v>519</v>
       </c>
       <c r="C954" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D954" t="n">
-        <v>1976.0</v>
+        <v>1968.0</v>
       </c>
       <c r="E954" t="n">
         <v>0.0</v>
@@ -27453,10 +28033,10 @@
         <v>519</v>
       </c>
       <c r="C955" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D955" t="n">
-        <v>1976.0</v>
+        <v>1969.0</v>
       </c>
       <c r="E955" t="n">
         <v>0.0</v>
@@ -27470,10 +28050,10 @@
         <v>519</v>
       </c>
       <c r="C956" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D956" t="n">
-        <v>1977.0</v>
+        <v>1969.0</v>
       </c>
       <c r="E956" t="n">
         <v>0.0</v>
@@ -27487,10 +28067,10 @@
         <v>519</v>
       </c>
       <c r="C957" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D957" t="n">
-        <v>1977.0</v>
+        <v>1970.0</v>
       </c>
       <c r="E957" t="n">
         <v>0.0</v>
@@ -27504,10 +28084,10 @@
         <v>519</v>
       </c>
       <c r="C958" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D958" t="n">
-        <v>1978.0</v>
+        <v>1970.0</v>
       </c>
       <c r="E958" t="n">
         <v>0.0</v>
@@ -27521,13 +28101,13 @@
         <v>519</v>
       </c>
       <c r="C959" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D959" t="n">
-        <v>1978.0</v>
+        <v>1970.0</v>
       </c>
       <c r="E959" t="n">
-        <v>0.0</v>
+        <v>-0.04440778</v>
       </c>
     </row>
     <row r="960">
@@ -27541,7 +28121,7 @@
         <v>520</v>
       </c>
       <c r="D960" t="n">
-        <v>1979.0</v>
+        <v>1971.0</v>
       </c>
       <c r="E960" t="n">
         <v>0.0</v>
@@ -27558,7 +28138,7 @@
         <v>521</v>
       </c>
       <c r="D961" t="n">
-        <v>1979.0</v>
+        <v>1971.0</v>
       </c>
       <c r="E961" t="n">
         <v>0.0</v>
@@ -27575,7 +28155,7 @@
         <v>520</v>
       </c>
       <c r="D962" t="n">
-        <v>1980.0</v>
+        <v>1972.0</v>
       </c>
       <c r="E962" t="n">
         <v>0.0</v>
@@ -27592,7 +28172,7 @@
         <v>521</v>
       </c>
       <c r="D963" t="n">
-        <v>1980.0</v>
+        <v>1972.0</v>
       </c>
       <c r="E963" t="n">
         <v>0.0</v>
@@ -27609,7 +28189,7 @@
         <v>520</v>
       </c>
       <c r="D964" t="n">
-        <v>1981.0</v>
+        <v>1973.0</v>
       </c>
       <c r="E964" t="n">
         <v>0.0</v>
@@ -27626,7 +28206,7 @@
         <v>521</v>
       </c>
       <c r="D965" t="n">
-        <v>1981.0</v>
+        <v>1973.0</v>
       </c>
       <c r="E965" t="n">
         <v>0.0</v>
@@ -27643,7 +28223,7 @@
         <v>520</v>
       </c>
       <c r="D966" t="n">
-        <v>1982.0</v>
+        <v>1974.0</v>
       </c>
       <c r="E966" t="n">
         <v>0.0</v>
@@ -27660,7 +28240,7 @@
         <v>521</v>
       </c>
       <c r="D967" t="n">
-        <v>1982.0</v>
+        <v>1974.0</v>
       </c>
       <c r="E967" t="n">
         <v>0.0</v>
@@ -27677,7 +28257,7 @@
         <v>520</v>
       </c>
       <c r="D968" t="n">
-        <v>1983.0</v>
+        <v>1975.0</v>
       </c>
       <c r="E968" t="n">
         <v>0.0</v>
@@ -27694,7 +28274,7 @@
         <v>521</v>
       </c>
       <c r="D969" t="n">
-        <v>1983.0</v>
+        <v>1975.0</v>
       </c>
       <c r="E969" t="n">
         <v>0.0</v>
@@ -27711,7 +28291,7 @@
         <v>520</v>
       </c>
       <c r="D970" t="n">
-        <v>1984.0</v>
+        <v>1976.0</v>
       </c>
       <c r="E970" t="n">
         <v>0.0</v>
@@ -27728,7 +28308,7 @@
         <v>521</v>
       </c>
       <c r="D971" t="n">
-        <v>1984.0</v>
+        <v>1976.0</v>
       </c>
       <c r="E971" t="n">
         <v>0.0</v>
@@ -27745,7 +28325,7 @@
         <v>520</v>
       </c>
       <c r="D972" t="n">
-        <v>1985.0</v>
+        <v>1977.0</v>
       </c>
       <c r="E972" t="n">
         <v>0.0</v>
@@ -27762,7 +28342,7 @@
         <v>521</v>
       </c>
       <c r="D973" t="n">
-        <v>1985.0</v>
+        <v>1977.0</v>
       </c>
       <c r="E973" t="n">
         <v>0.0</v>
@@ -27779,7 +28359,7 @@
         <v>520</v>
       </c>
       <c r="D974" t="n">
-        <v>1986.0</v>
+        <v>1978.0</v>
       </c>
       <c r="E974" t="n">
         <v>0.0</v>
@@ -27796,7 +28376,7 @@
         <v>521</v>
       </c>
       <c r="D975" t="n">
-        <v>1986.0</v>
+        <v>1978.0</v>
       </c>
       <c r="E975" t="n">
         <v>0.0</v>
@@ -27813,7 +28393,7 @@
         <v>520</v>
       </c>
       <c r="D976" t="n">
-        <v>1987.0</v>
+        <v>1979.0</v>
       </c>
       <c r="E976" t="n">
         <v>0.0</v>
@@ -27830,7 +28410,7 @@
         <v>521</v>
       </c>
       <c r="D977" t="n">
-        <v>1987.0</v>
+        <v>1979.0</v>
       </c>
       <c r="E977" t="n">
         <v>0.0</v>
@@ -27847,7 +28427,7 @@
         <v>520</v>
       </c>
       <c r="D978" t="n">
-        <v>1988.0</v>
+        <v>1980.0</v>
       </c>
       <c r="E978" t="n">
         <v>0.0</v>
@@ -27864,7 +28444,7 @@
         <v>521</v>
       </c>
       <c r="D979" t="n">
-        <v>1988.0</v>
+        <v>1980.0</v>
       </c>
       <c r="E979" t="n">
         <v>0.0</v>
@@ -27878,13 +28458,13 @@
         <v>519</v>
       </c>
       <c r="C980" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D980" t="n">
-        <v>1989.0</v>
+        <v>1980.0</v>
       </c>
       <c r="E980" t="n">
-        <v>0.0</v>
+        <v>0.19500919</v>
       </c>
     </row>
     <row r="981">
@@ -27895,10 +28475,10 @@
         <v>519</v>
       </c>
       <c r="C981" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D981" t="n">
-        <v>1989.0</v>
+        <v>1981.0</v>
       </c>
       <c r="E981" t="n">
         <v>0.0</v>
@@ -27912,10 +28492,10 @@
         <v>519</v>
       </c>
       <c r="C982" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D982" t="n">
-        <v>1990.0</v>
+        <v>1981.0</v>
       </c>
       <c r="E982" t="n">
         <v>0.0</v>
@@ -27929,10 +28509,10 @@
         <v>519</v>
       </c>
       <c r="C983" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D983" t="n">
-        <v>1990.0</v>
+        <v>1982.0</v>
       </c>
       <c r="E983" t="n">
         <v>0.0</v>
@@ -27946,10 +28526,10 @@
         <v>519</v>
       </c>
       <c r="C984" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D984" t="n">
-        <v>1991.0</v>
+        <v>1982.0</v>
       </c>
       <c r="E984" t="n">
         <v>0.0</v>
@@ -27963,10 +28543,10 @@
         <v>519</v>
       </c>
       <c r="C985" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D985" t="n">
-        <v>1991.0</v>
+        <v>1983.0</v>
       </c>
       <c r="E985" t="n">
         <v>0.0</v>
@@ -27980,10 +28560,10 @@
         <v>519</v>
       </c>
       <c r="C986" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D986" t="n">
-        <v>1992.0</v>
+        <v>1983.0</v>
       </c>
       <c r="E986" t="n">
         <v>0.0</v>
@@ -27997,10 +28577,10 @@
         <v>519</v>
       </c>
       <c r="C987" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D987" t="n">
-        <v>1992.0</v>
+        <v>1984.0</v>
       </c>
       <c r="E987" t="n">
         <v>0.0</v>
@@ -28014,10 +28594,10 @@
         <v>519</v>
       </c>
       <c r="C988" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D988" t="n">
-        <v>1993.0</v>
+        <v>1984.0</v>
       </c>
       <c r="E988" t="n">
         <v>0.0</v>
@@ -28031,10 +28611,10 @@
         <v>519</v>
       </c>
       <c r="C989" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D989" t="n">
-        <v>1993.0</v>
+        <v>1985.0</v>
       </c>
       <c r="E989" t="n">
         <v>0.0</v>
@@ -28048,10 +28628,10 @@
         <v>519</v>
       </c>
       <c r="C990" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D990" t="n">
-        <v>1994.0</v>
+        <v>1985.0</v>
       </c>
       <c r="E990" t="n">
         <v>0.0</v>
@@ -28065,10 +28645,10 @@
         <v>519</v>
       </c>
       <c r="C991" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D991" t="n">
-        <v>1994.0</v>
+        <v>1986.0</v>
       </c>
       <c r="E991" t="n">
         <v>0.0</v>
@@ -28082,10 +28662,10 @@
         <v>519</v>
       </c>
       <c r="C992" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D992" t="n">
-        <v>1995.0</v>
+        <v>1986.0</v>
       </c>
       <c r="E992" t="n">
         <v>0.0</v>
@@ -28099,10 +28679,10 @@
         <v>519</v>
       </c>
       <c r="C993" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D993" t="n">
-        <v>1995.0</v>
+        <v>1987.0</v>
       </c>
       <c r="E993" t="n">
         <v>0.0</v>
@@ -28116,10 +28696,10 @@
         <v>519</v>
       </c>
       <c r="C994" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D994" t="n">
-        <v>1996.0</v>
+        <v>1987.0</v>
       </c>
       <c r="E994" t="n">
         <v>0.0</v>
@@ -28133,10 +28713,10 @@
         <v>519</v>
       </c>
       <c r="C995" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D995" t="n">
-        <v>1996.0</v>
+        <v>1988.0</v>
       </c>
       <c r="E995" t="n">
         <v>0.0</v>
@@ -28150,10 +28730,10 @@
         <v>519</v>
       </c>
       <c r="C996" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D996" t="n">
-        <v>1997.0</v>
+        <v>1988.0</v>
       </c>
       <c r="E996" t="n">
         <v>0.0</v>
@@ -28167,10 +28747,10 @@
         <v>519</v>
       </c>
       <c r="C997" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D997" t="n">
-        <v>1997.0</v>
+        <v>1989.0</v>
       </c>
       <c r="E997" t="n">
         <v>0.0</v>
@@ -28184,10 +28764,10 @@
         <v>519</v>
       </c>
       <c r="C998" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D998" t="n">
-        <v>1998.0</v>
+        <v>1989.0</v>
       </c>
       <c r="E998" t="n">
         <v>0.0</v>
@@ -28201,10 +28781,10 @@
         <v>519</v>
       </c>
       <c r="C999" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D999" t="n">
-        <v>1998.0</v>
+        <v>1990.0</v>
       </c>
       <c r="E999" t="n">
         <v>0.0</v>
@@ -28218,10 +28798,10 @@
         <v>519</v>
       </c>
       <c r="C1000" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D1000" t="n">
-        <v>1999.0</v>
+        <v>1990.0</v>
       </c>
       <c r="E1000" t="n">
         <v>0.0</v>
@@ -28235,13 +28815,13 @@
         <v>519</v>
       </c>
       <c r="C1001" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="D1001" t="n">
-        <v>1999.0</v>
+        <v>1990.0</v>
       </c>
       <c r="E1001" t="n">
-        <v>0.0</v>
+        <v>0.53065204</v>
       </c>
     </row>
     <row r="1002">
@@ -28255,7 +28835,7 @@
         <v>520</v>
       </c>
       <c r="D1002" t="n">
-        <v>2000.0</v>
+        <v>1991.0</v>
       </c>
       <c r="E1002" t="n">
         <v>0.0</v>
@@ -28272,7 +28852,7 @@
         <v>521</v>
       </c>
       <c r="D1003" t="n">
-        <v>2000.0</v>
+        <v>1991.0</v>
       </c>
       <c r="E1003" t="n">
         <v>0.0</v>
@@ -28286,13 +28866,13 @@
         <v>519</v>
       </c>
       <c r="C1004" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D1004" t="n">
-        <v>2011.0</v>
+        <v>1992.0</v>
       </c>
       <c r="E1004" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1005">
@@ -28303,10 +28883,10 @@
         <v>519</v>
       </c>
       <c r="C1005" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D1005" t="n">
-        <v>2011.0</v>
+        <v>1992.0</v>
       </c>
       <c r="E1005" t="n">
         <v>0.0</v>
@@ -28320,13 +28900,13 @@
         <v>519</v>
       </c>
       <c r="C1006" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D1006" t="n">
-        <v>2011.0</v>
+        <v>1993.0</v>
       </c>
       <c r="E1006" t="n">
-        <v>4.788903</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1007">
@@ -28337,13 +28917,13 @@
         <v>519</v>
       </c>
       <c r="C1007" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D1007" t="n">
-        <v>2011.0</v>
+        <v>1993.0</v>
       </c>
       <c r="E1007" t="n">
-        <v>2.98895</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1008">
@@ -28354,13 +28934,13 @@
         <v>519</v>
       </c>
       <c r="C1008" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D1008" t="n">
-        <v>2011.0</v>
+        <v>1994.0</v>
       </c>
       <c r="E1008" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1009">
@@ -28371,13 +28951,13 @@
         <v>519</v>
       </c>
       <c r="C1009" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D1009" t="n">
-        <v>2011.0</v>
+        <v>1994.0</v>
       </c>
       <c r="E1009" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1010">
@@ -28388,10 +28968,10 @@
         <v>519</v>
       </c>
       <c r="C1010" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D1010" t="n">
-        <v>2011.0</v>
+        <v>1995.0</v>
       </c>
       <c r="E1010" t="n">
         <v>0.0</v>
@@ -28405,13 +28985,13 @@
         <v>519</v>
       </c>
       <c r="C1011" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D1011" t="n">
-        <v>2011.0</v>
+        <v>1995.0</v>
       </c>
       <c r="E1011" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1012">
@@ -28422,13 +29002,13 @@
         <v>519</v>
       </c>
       <c r="C1012" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D1012" t="n">
-        <v>2011.0</v>
+        <v>1996.0</v>
       </c>
       <c r="E1012" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1013">
@@ -28439,13 +29019,13 @@
         <v>519</v>
       </c>
       <c r="C1013" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D1013" t="n">
-        <v>2012.0</v>
+        <v>1996.0</v>
       </c>
       <c r="E1013" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1014">
@@ -28456,10 +29036,10 @@
         <v>519</v>
       </c>
       <c r="C1014" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D1014" t="n">
-        <v>2012.0</v>
+        <v>1997.0</v>
       </c>
       <c r="E1014" t="n">
         <v>0.0</v>
@@ -28473,13 +29053,13 @@
         <v>519</v>
       </c>
       <c r="C1015" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D1015" t="n">
-        <v>2012.0</v>
+        <v>1997.0</v>
       </c>
       <c r="E1015" t="n">
-        <v>4.660002</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1016">
@@ -28490,13 +29070,13 @@
         <v>519</v>
       </c>
       <c r="C1016" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D1016" t="n">
-        <v>2012.0</v>
+        <v>1998.0</v>
       </c>
       <c r="E1016" t="n">
-        <v>2.95</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1017">
@@ -28507,13 +29087,13 @@
         <v>519</v>
       </c>
       <c r="C1017" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D1017" t="n">
-        <v>2012.0</v>
+        <v>1998.0</v>
       </c>
       <c r="E1017" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1018">
@@ -28524,13 +29104,13 @@
         <v>519</v>
       </c>
       <c r="C1018" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D1018" t="n">
-        <v>2012.0</v>
+        <v>1999.0</v>
       </c>
       <c r="E1018" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1019">
@@ -28541,10 +29121,10 @@
         <v>519</v>
       </c>
       <c r="C1019" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="D1019" t="n">
-        <v>2012.0</v>
+        <v>1999.0</v>
       </c>
       <c r="E1019" t="n">
         <v>0.0</v>
@@ -28558,13 +29138,13 @@
         <v>519</v>
       </c>
       <c r="C1020" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D1020" t="n">
-        <v>2012.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E1020" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1021">
@@ -28575,13 +29155,13 @@
         <v>519</v>
       </c>
       <c r="C1021" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="D1021" t="n">
-        <v>2012.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E1021" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="1022">
@@ -28595,10 +29175,10 @@
         <v>524</v>
       </c>
       <c r="D1022" t="n">
-        <v>2013.0</v>
+        <v>2000.0</v>
       </c>
       <c r="E1022" t="n">
-        <v>4.611821</v>
+        <v>0.83270061</v>
       </c>
     </row>
     <row r="1023">
@@ -28609,12 +29189,335 @@
         <v>519</v>
       </c>
       <c r="C1023" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>523</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1025" t="s">
         <v>525</v>
       </c>
-      <c r="D1023" t="n">
+      <c r="D1025" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>4.78890313</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>2.98895</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>528</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>530</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>531</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>522</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>523</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>4.66000163</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>528</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>530</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>531</v>
+      </c>
+      <c r="D1040" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E1040" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1041" t="n">
         <v>2013.0</v>
       </c>
-      <c r="E1023" t="n">
+      <c r="E1041" t="n">
+        <v>4.61182087</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>728.0</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>526</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E1042" t="n">
         <v>2.95</v>
       </c>
     </row>
@@ -28633,18 +29536,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -28662,98 +29565,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B5" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B11" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B12" t="s">
-        <v>548</v>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>538</v>
+      </c>
+      <c r="B13" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -28771,10 +29682,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2">
@@ -28782,7 +29693,7 @@
         <v>520</v>
       </c>
       <c r="B2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3">
@@ -28790,7 +29701,7 @@
         <v>521</v>
       </c>
       <c r="B3" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4">
@@ -28798,7 +29709,7 @@
         <v>522</v>
       </c>
       <c r="B4" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5">
@@ -28806,7 +29717,7 @@
         <v>523</v>
       </c>
       <c r="B5" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6">
@@ -28814,7 +29725,7 @@
         <v>524</v>
       </c>
       <c r="B6" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7">
@@ -28822,7 +29733,7 @@
         <v>525</v>
       </c>
       <c r="B7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8">
@@ -28830,7 +29741,7 @@
         <v>526</v>
       </c>
       <c r="B8" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9">
@@ -28838,7 +29749,7 @@
         <v>527</v>
       </c>
       <c r="B9" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10">
@@ -28846,7 +29757,7 @@
         <v>528</v>
       </c>
       <c r="B10" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11">
@@ -28854,7 +29765,7 @@
         <v>529</v>
       </c>
       <c r="B11" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12">
@@ -28862,7 +29773,15 @@
         <v>530</v>
       </c>
       <c r="B12" t="s">
-        <v>559</v>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>531</v>
+      </c>
+      <c r="B13" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -28880,10 +29799,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2">
@@ -28891,7 +29810,7 @@
         <v>520</v>
       </c>
       <c r="B2" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="3">
@@ -28899,7 +29818,7 @@
         <v>521</v>
       </c>
       <c r="B3" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4">
@@ -28907,7 +29826,7 @@
         <v>522</v>
       </c>
       <c r="B4" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="5">
@@ -28915,7 +29834,7 @@
         <v>523</v>
       </c>
       <c r="B5" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6">
@@ -28923,7 +29842,7 @@
         <v>524</v>
       </c>
       <c r="B6" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7">
@@ -28931,7 +29850,7 @@
         <v>525</v>
       </c>
       <c r="B7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8">
@@ -28939,7 +29858,7 @@
         <v>526</v>
       </c>
       <c r="B8" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9">
@@ -28947,7 +29866,7 @@
         <v>527</v>
       </c>
       <c r="B9" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10">
@@ -28955,7 +29874,7 @@
         <v>528</v>
       </c>
       <c r="B10" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11">
@@ -28963,7 +29882,7 @@
         <v>529</v>
       </c>
       <c r="B11" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12">
@@ -28971,7 +29890,15 @@
         <v>530</v>
       </c>
       <c r="B12" t="s">
-        <v>570</v>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>531</v>
+      </c>
+      <c r="B13" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -28989,10 +29916,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2">
@@ -29000,7 +29927,7 @@
         <v>520</v>
       </c>
       <c r="B2" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3">
@@ -29008,7 +29935,7 @@
         <v>521</v>
       </c>
       <c r="B3" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4">
@@ -29016,7 +29943,7 @@
         <v>522</v>
       </c>
       <c r="B4" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5">
@@ -29024,7 +29951,7 @@
         <v>523</v>
       </c>
       <c r="B5" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6">
@@ -29032,7 +29959,7 @@
         <v>524</v>
       </c>
       <c r="B6" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7">
@@ -29040,7 +29967,7 @@
         <v>525</v>
       </c>
       <c r="B7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8">
@@ -29048,7 +29975,7 @@
         <v>526</v>
       </c>
       <c r="B8" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9">
@@ -29056,7 +29983,7 @@
         <v>527</v>
       </c>
       <c r="B9" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10">
@@ -29064,7 +29991,7 @@
         <v>528</v>
       </c>
       <c r="B10" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="11">
@@ -29072,7 +29999,7 @@
         <v>529</v>
       </c>
       <c r="B11" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12">
@@ -29080,7 +30007,15 @@
         <v>530</v>
       </c>
       <c r="B12" t="s">
-        <v>581</v>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>531</v>
+      </c>
+      <c r="B13" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
